--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.5394542876058</v>
+        <v>231.0267989053364</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.336243246754</v>
+        <v>316.1010584451734</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.5855561720628</v>
+        <v>285.9328170778817</v>
       </c>
       <c r="AD2" t="n">
-        <v>189539.4542876058</v>
+        <v>231026.7989053364</v>
       </c>
       <c r="AE2" t="n">
-        <v>259336.243246754</v>
+        <v>316101.0584451734</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.719822583393759e-06</v>
+        <v>4.597995024491357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.449845679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>234585.5561720628</v>
+        <v>285932.8170778817</v>
       </c>
     </row>
     <row r="3">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>157.5413231069231</v>
+        <v>188.8701165752367</v>
       </c>
       <c r="AB3" t="n">
-        <v>215.5549885074479</v>
+        <v>258.4204258595952</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.9827229376852</v>
+        <v>233.7571431109765</v>
       </c>
       <c r="AD3" t="n">
-        <v>157541.3231069231</v>
+        <v>188870.1165752367</v>
       </c>
       <c r="AE3" t="n">
-        <v>215554.9885074479</v>
+        <v>258420.4258595952</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.090024742008547e-06</v>
+        <v>5.223840141654399e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.558641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>194982.7229376852</v>
+        <v>233757.1431109765</v>
       </c>
     </row>
     <row r="4">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.2987945056285</v>
+        <v>177.4569957733499</v>
       </c>
       <c r="AB4" t="n">
-        <v>200.1724648898074</v>
+        <v>242.8044904671079</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.0682857846</v>
+        <v>219.6315706752401</v>
       </c>
       <c r="AD4" t="n">
-        <v>146298.7945056285</v>
+        <v>177456.9957733499</v>
       </c>
       <c r="AE4" t="n">
-        <v>200172.4648898074</v>
+        <v>242804.4904671079</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.346104430674414e-06</v>
+        <v>5.656755561045374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.057098765432098</v>
       </c>
       <c r="AH4" t="n">
-        <v>181068.2857846</v>
+        <v>219631.5706752401</v>
       </c>
     </row>
     <row r="5">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.7503444550849</v>
+        <v>159.993797068827</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.1619013476886</v>
+        <v>218.9105715776383</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.3492567278957</v>
+        <v>198.0180538692482</v>
       </c>
       <c r="AD5" t="n">
-        <v>128750.3444550849</v>
+        <v>159993.797068827</v>
       </c>
       <c r="AE5" t="n">
-        <v>176161.9013476886</v>
+        <v>218910.5715776383</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.529656217361701e-06</v>
+        <v>5.96705896358259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.740740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>159349.2567278958</v>
+        <v>198018.0538692482</v>
       </c>
     </row>
     <row r="6">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.34860086309</v>
+        <v>154.4214612762398</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.7709974570164</v>
+        <v>211.2862559121193</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.6637303313482</v>
+        <v>191.1213921900496</v>
       </c>
       <c r="AD6" t="n">
-        <v>123348.60086309</v>
+        <v>154421.4612762398</v>
       </c>
       <c r="AE6" t="n">
-        <v>168770.9974570164</v>
+        <v>211286.2559121193</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.68542577367486e-06</v>
+        <v>6.230395127223614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.497685185185186</v>
       </c>
       <c r="AH6" t="n">
-        <v>152663.7303313482</v>
+        <v>191121.3921900496</v>
       </c>
     </row>
     <row r="7">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.0206878278292</v>
+        <v>150.0935482409791</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.849355908128</v>
+        <v>205.3646143632309</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.3072419408077</v>
+        <v>185.7649037995091</v>
       </c>
       <c r="AD7" t="n">
-        <v>119020.6878278292</v>
+        <v>150093.5482409791</v>
       </c>
       <c r="AE7" t="n">
-        <v>162849.355908128</v>
+        <v>205364.6143632309</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.815986500915087e-06</v>
+        <v>6.451114514550514e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.308641975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>147307.2419408077</v>
+        <v>185764.9037995091</v>
       </c>
     </row>
     <row r="8">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>115.7236504730333</v>
+        <v>136.5527083907457</v>
       </c>
       <c r="AB8" t="n">
-        <v>158.3382039442761</v>
+        <v>186.8374399004576</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.2266279889429</v>
+        <v>169.0059368644044</v>
       </c>
       <c r="AD8" t="n">
-        <v>115723.6504730333</v>
+        <v>136552.7083907457</v>
       </c>
       <c r="AE8" t="n">
-        <v>158338.2039442761</v>
+        <v>186837.4399004576</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.91424841590562e-06</v>
+        <v>6.617231157224943e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.177469135802469</v>
       </c>
       <c r="AH8" t="n">
-        <v>143226.6279889428</v>
+        <v>169005.9368644044</v>
       </c>
     </row>
     <row r="9">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.6607948393739</v>
+        <v>132.4898527570863</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.7792256257656</v>
+        <v>181.2784615819472</v>
       </c>
       <c r="AC9" t="n">
-        <v>138.1981907590742</v>
+        <v>163.9774996345357</v>
       </c>
       <c r="AD9" t="n">
-        <v>111660.7948393739</v>
+        <v>132489.8527570863</v>
       </c>
       <c r="AE9" t="n">
-        <v>152779.2256257656</v>
+        <v>181278.4615819472</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.043181072934888e-06</v>
+        <v>6.835198211081557e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.011574074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>138198.1907590742</v>
+        <v>163977.4996345358</v>
       </c>
     </row>
     <row r="10">
@@ -8510,28 +8510,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.5501880495751</v>
+        <v>133.3792459672875</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.9961326532215</v>
+        <v>182.4953686094031</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.2989578877699</v>
+        <v>165.0782667632314</v>
       </c>
       <c r="AD10" t="n">
-        <v>112550.1880495751</v>
+        <v>133379.2459672875</v>
       </c>
       <c r="AE10" t="n">
-        <v>153996.1326532215</v>
+        <v>182495.3686094031</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.999013103663354e-06</v>
+        <v>6.760530067581184e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.065586419753086</v>
       </c>
       <c r="AH10" t="n">
-        <v>139298.9578877699</v>
+        <v>165078.2667632314</v>
       </c>
     </row>
     <row r="11">
@@ -8616,28 +8616,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>98.36892075485576</v>
+        <v>129.5270325140262</v>
       </c>
       <c r="AB11" t="n">
-        <v>134.5926971072382</v>
+        <v>177.2246002149903</v>
       </c>
       <c r="AC11" t="n">
-        <v>121.7473589973962</v>
+        <v>160.3105331068098</v>
       </c>
       <c r="AD11" t="n">
-        <v>98368.92075485576</v>
+        <v>129527.0325140262</v>
       </c>
       <c r="AE11" t="n">
-        <v>134592.6971072382</v>
+        <v>177224.6002149903</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.108618991736707e-06</v>
+        <v>6.945824259596969e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>121747.3589973962</v>
+        <v>160310.5331068098</v>
       </c>
     </row>
     <row r="12">
@@ -8722,28 +8722,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>98.3700052756087</v>
+        <v>129.5281170347791</v>
       </c>
       <c r="AB12" t="n">
-        <v>134.5941809963781</v>
+        <v>177.2260841041302</v>
       </c>
       <c r="AC12" t="n">
-        <v>121.7487012662392</v>
+        <v>160.3118753756528</v>
       </c>
       <c r="AD12" t="n">
-        <v>98370.00527560871</v>
+        <v>129528.1170347791</v>
       </c>
       <c r="AE12" t="n">
-        <v>134594.1809963781</v>
+        <v>177226.0841041302</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.103367152346513e-06</v>
+        <v>6.936945764531528e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.938271604938272</v>
       </c>
       <c r="AH12" t="n">
-        <v>121748.7012662392</v>
+        <v>160311.8753756528</v>
       </c>
     </row>
   </sheetData>
@@ -9019,28 +9019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.8259226426246</v>
+        <v>423.2393917505794</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.2249694083289</v>
+        <v>579.0948077973038</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.6294635560455</v>
+        <v>523.8268121057957</v>
       </c>
       <c r="AD2" t="n">
-        <v>356825.9226426246</v>
+        <v>423239.3917505794</v>
       </c>
       <c r="AE2" t="n">
-        <v>488224.9694083289</v>
+        <v>579094.8077973038</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.755714754094037e-06</v>
+        <v>2.841775366691543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.79861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>441629.4635560455</v>
+        <v>523826.8121057957</v>
       </c>
     </row>
     <row r="3">
@@ -9125,28 +9125,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.2375933748349</v>
+        <v>320.5679274890353</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.9097767122224</v>
+        <v>438.6151808493353</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.2741769698778</v>
+        <v>396.7543635893466</v>
       </c>
       <c r="AD3" t="n">
-        <v>265237.5933748349</v>
+        <v>320567.9274890353</v>
       </c>
       <c r="AE3" t="n">
-        <v>362909.7767122224</v>
+        <v>438615.1808493353</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.155149565211286e-06</v>
+        <v>3.488294970280458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.796296296296298</v>
       </c>
       <c r="AH3" t="n">
-        <v>328274.1769698778</v>
+        <v>396754.3635893466</v>
       </c>
     </row>
     <row r="4">
@@ -9231,28 +9231,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.9855877218893</v>
+        <v>267.3181276969097</v>
       </c>
       <c r="AB4" t="n">
-        <v>305.0987185507865</v>
+        <v>365.7564555583815</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.9805250611306</v>
+        <v>330.8491727822983</v>
       </c>
       <c r="AD4" t="n">
-        <v>222985.5877218893</v>
+        <v>267318.1276969097</v>
       </c>
       <c r="AE4" t="n">
-        <v>305098.7185507865</v>
+        <v>365756.4555583815</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.442158881453856e-06</v>
+        <v>3.952844238894415e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.762345679012346</v>
       </c>
       <c r="AH4" t="n">
-        <v>275980.5250611306</v>
+        <v>330849.1727822983</v>
       </c>
     </row>
     <row r="5">
@@ -9337,28 +9337,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.5860181789401</v>
+        <v>238.8355126687539</v>
       </c>
       <c r="AB5" t="n">
-        <v>281.2918598873026</v>
+        <v>326.7852851124139</v>
       </c>
       <c r="AC5" t="n">
-        <v>254.445759575346</v>
+        <v>295.5973561474104</v>
       </c>
       <c r="AD5" t="n">
-        <v>205586.0181789401</v>
+        <v>238835.5126687539</v>
       </c>
       <c r="AE5" t="n">
-        <v>281291.8598873026</v>
+        <v>326785.2851124139</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.656396275533227e-06</v>
+        <v>4.299605891206837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.137345679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>254445.759575346</v>
+        <v>295597.3561474105</v>
       </c>
     </row>
     <row r="6">
@@ -9443,28 +9443,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.6198352142739</v>
+        <v>226.8670343347192</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.8685151585775</v>
+        <v>310.409485043797</v>
       </c>
       <c r="AC6" t="n">
-        <v>226.021414764579</v>
+        <v>280.7844394537574</v>
       </c>
       <c r="AD6" t="n">
-        <v>182619.8352142739</v>
+        <v>226867.0343347192</v>
       </c>
       <c r="AE6" t="n">
-        <v>249868.5151585775</v>
+        <v>310409.485043797</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.829849945510332e-06</v>
+        <v>4.580355577597397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.697530864197531</v>
       </c>
       <c r="AH6" t="n">
-        <v>226021.414764579</v>
+        <v>280784.4394537574</v>
       </c>
     </row>
     <row r="7">
@@ -9549,28 +9549,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>174.8001360171403</v>
+        <v>207.9642896523825</v>
       </c>
       <c r="AB7" t="n">
-        <v>239.1692577362837</v>
+        <v>284.5459158391973</v>
       </c>
       <c r="AC7" t="n">
-        <v>216.3432794541635</v>
+        <v>257.3892529942891</v>
       </c>
       <c r="AD7" t="n">
-        <v>174800.1360171404</v>
+        <v>207964.2896523825</v>
       </c>
       <c r="AE7" t="n">
-        <v>239169.2577362837</v>
+        <v>284545.9158391973</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.962126795249247e-06</v>
+        <v>4.7944570381536e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.400462962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>216343.2794541635</v>
+        <v>257389.2529942891</v>
       </c>
     </row>
     <row r="8">
@@ -9655,28 +9655,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.698550250248</v>
+        <v>200.8627038854902</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.452554790174</v>
+        <v>274.8292128930876</v>
       </c>
       <c r="AC8" t="n">
-        <v>207.5539249997492</v>
+        <v>248.5998985398748</v>
       </c>
       <c r="AD8" t="n">
-        <v>167698.550250248</v>
+        <v>200862.7038854902</v>
       </c>
       <c r="AE8" t="n">
-        <v>229452.554790174</v>
+        <v>274829.2128930876</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.094551056039132e-06</v>
+        <v>5.008797096176987e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.126543209876544</v>
       </c>
       <c r="AH8" t="n">
-        <v>207553.9249997492</v>
+        <v>248599.8985398748</v>
       </c>
     </row>
     <row r="9">
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.6721221542238</v>
+        <v>196.8339804200975</v>
       </c>
       <c r="AB9" t="n">
-        <v>208.8927329499828</v>
+        <v>269.3169357130048</v>
       </c>
       <c r="AC9" t="n">
-        <v>188.9563037000881</v>
+        <v>243.6137053573277</v>
       </c>
       <c r="AD9" t="n">
-        <v>152672.1221542238</v>
+        <v>196833.9804200975</v>
       </c>
       <c r="AE9" t="n">
-        <v>208892.7329499828</v>
+        <v>269316.9357130048</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.174300434615009e-06</v>
+        <v>5.137878325925397e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.972222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>188956.3037000881</v>
+        <v>243613.7053573276</v>
       </c>
     </row>
     <row r="10">
@@ -9867,28 +9867,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>148.3434733585066</v>
+        <v>181.5928783397693</v>
       </c>
       <c r="AB10" t="n">
-        <v>202.9700847011784</v>
+        <v>248.4633874567413</v>
       </c>
       <c r="AC10" t="n">
-        <v>183.5989046876587</v>
+        <v>224.7503904784966</v>
       </c>
       <c r="AD10" t="n">
-        <v>148343.4733585066</v>
+        <v>181592.8783397693</v>
       </c>
       <c r="AE10" t="n">
-        <v>202970.0847011784</v>
+        <v>248463.3874567413</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.265203916047769e-06</v>
+        <v>5.285013430690987e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.806327160493828</v>
       </c>
       <c r="AH10" t="n">
-        <v>183598.9046876587</v>
+        <v>224750.3904784966</v>
       </c>
     </row>
     <row r="11">
@@ -9973,28 +9973,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>144.9858082000457</v>
+        <v>178.2352131813085</v>
       </c>
       <c r="AB11" t="n">
-        <v>198.3759791016423</v>
+        <v>243.8692818572051</v>
       </c>
       <c r="AC11" t="n">
-        <v>179.4432540786731</v>
+        <v>220.594739869511</v>
       </c>
       <c r="AD11" t="n">
-        <v>144985.8082000457</v>
+        <v>178235.2131813085</v>
       </c>
       <c r="AE11" t="n">
-        <v>198375.9791016423</v>
+        <v>243869.2818572051</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.340678374145456e-06</v>
+        <v>5.40717533389096e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.675154320987655</v>
       </c>
       <c r="AH11" t="n">
-        <v>179443.2540786731</v>
+        <v>220594.739869511</v>
       </c>
     </row>
     <row r="12">
@@ -10079,28 +10079,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>142.3279144441618</v>
+        <v>175.5773194254244</v>
       </c>
       <c r="AB12" t="n">
-        <v>194.7393316068468</v>
+        <v>240.2326343624096</v>
       </c>
       <c r="AC12" t="n">
-        <v>176.1536831167129</v>
+        <v>217.3051689075508</v>
       </c>
       <c r="AD12" t="n">
-        <v>142327.9144441618</v>
+        <v>175577.3194254244</v>
       </c>
       <c r="AE12" t="n">
-        <v>194739.3316068468</v>
+        <v>240232.6343624096</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.40008502768719e-06</v>
+        <v>5.503330113167501e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.574845679012345</v>
       </c>
       <c r="AH12" t="n">
-        <v>176153.6831167129</v>
+        <v>217305.1689075508</v>
       </c>
     </row>
     <row r="13">
@@ -10185,28 +10185,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>139.4855067486159</v>
+        <v>172.5643195292865</v>
       </c>
       <c r="AB13" t="n">
-        <v>190.8502239996255</v>
+        <v>236.1101149803415</v>
       </c>
       <c r="AC13" t="n">
-        <v>172.6357464811269</v>
+        <v>213.5760969893136</v>
       </c>
       <c r="AD13" t="n">
-        <v>139485.5067486159</v>
+        <v>172564.3195292864</v>
       </c>
       <c r="AE13" t="n">
-        <v>190850.2239996255</v>
+        <v>236110.1149803415</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.466272589573637e-06</v>
+        <v>5.610460375934664e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.47067901234568</v>
       </c>
       <c r="AH13" t="n">
-        <v>172635.7464811269</v>
+        <v>213576.0969893136</v>
       </c>
     </row>
     <row r="14">
@@ -10291,28 +10291,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>136.1272103611857</v>
+        <v>169.2060231418562</v>
       </c>
       <c r="AB14" t="n">
-        <v>186.2552547247657</v>
+        <v>231.5151457054817</v>
       </c>
       <c r="AC14" t="n">
-        <v>168.4793146247783</v>
+        <v>209.4196651329651</v>
       </c>
       <c r="AD14" t="n">
-        <v>136127.2103611857</v>
+        <v>169206.0231418562</v>
       </c>
       <c r="AE14" t="n">
-        <v>186255.2547247657</v>
+        <v>231515.1457054817</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.534671317224666e-06</v>
+        <v>5.721169600709638e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.362654320987655</v>
       </c>
       <c r="AH14" t="n">
-        <v>168479.3146247783</v>
+        <v>209419.6651329651</v>
       </c>
     </row>
     <row r="15">
@@ -10397,28 +10397,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>136.734231275981</v>
+        <v>169.8130440566516</v>
       </c>
       <c r="AB15" t="n">
-        <v>187.085807520261</v>
+        <v>232.345698500977</v>
       </c>
       <c r="AC15" t="n">
-        <v>169.2306006271599</v>
+        <v>210.1709511353467</v>
       </c>
       <c r="AD15" t="n">
-        <v>136734.2312759811</v>
+        <v>169813.0440566516</v>
       </c>
       <c r="AE15" t="n">
-        <v>187085.807520261</v>
+        <v>232345.698500977</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.529610204474625e-06</v>
+        <v>5.712977754336203e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>169230.6006271599</v>
+        <v>210170.9511353468</v>
       </c>
     </row>
     <row r="16">
@@ -10503,28 +10503,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>135.8003225735614</v>
+        <v>168.8791353542319</v>
       </c>
       <c r="AB16" t="n">
-        <v>185.8079924324669</v>
+        <v>231.0678834131829</v>
       </c>
       <c r="AC16" t="n">
-        <v>168.0747384179198</v>
+        <v>209.0150889261066</v>
       </c>
       <c r="AD16" t="n">
-        <v>135800.3225735614</v>
+        <v>168879.1353542319</v>
       </c>
       <c r="AE16" t="n">
-        <v>185807.9924324669</v>
+        <v>231067.8834131829</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.54646420130243e-06</v>
+        <v>5.740257398084635e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>168074.7384179198</v>
+        <v>209015.0889261066</v>
       </c>
     </row>
     <row r="17">
@@ -10609,28 +10609,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>133.5346830451292</v>
+        <v>155.7010425411887</v>
       </c>
       <c r="AB17" t="n">
-        <v>182.7080444767059</v>
+        <v>213.0370354499628</v>
       </c>
       <c r="AC17" t="n">
-        <v>165.2706451442513</v>
+        <v>192.7050797860365</v>
       </c>
       <c r="AD17" t="n">
-        <v>133534.6830451292</v>
+        <v>155701.0425411887</v>
       </c>
       <c r="AE17" t="n">
-        <v>182708.0444767059</v>
+        <v>213037.0354499628</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.597271876870794e-06</v>
+        <v>5.822493991775241e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.270061728395062</v>
       </c>
       <c r="AH17" t="n">
-        <v>165270.6451442513</v>
+        <v>192705.0797860365</v>
       </c>
     </row>
     <row r="18">
@@ -10715,28 +10715,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>131.2869262595399</v>
+        <v>153.4532857555994</v>
       </c>
       <c r="AB18" t="n">
-        <v>179.6325644786334</v>
+        <v>209.9615554518903</v>
       </c>
       <c r="AC18" t="n">
-        <v>162.4886846407306</v>
+        <v>189.9231192825157</v>
       </c>
       <c r="AD18" t="n">
-        <v>131286.9262595399</v>
+        <v>153453.2857555994</v>
       </c>
       <c r="AE18" t="n">
-        <v>179632.5644786334</v>
+        <v>209961.5554518903</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.650683814339664e-06</v>
+        <v>5.908945807386159e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.192901234567902</v>
       </c>
       <c r="AH18" t="n">
-        <v>162488.6846407306</v>
+        <v>189923.1192825157</v>
       </c>
     </row>
     <row r="19">
@@ -10821,28 +10821,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>130.1603518926262</v>
+        <v>152.3267113886857</v>
       </c>
       <c r="AB19" t="n">
-        <v>178.0911357288695</v>
+        <v>208.4201267021265</v>
       </c>
       <c r="AC19" t="n">
-        <v>161.0943676874349</v>
+        <v>188.52880232922</v>
       </c>
       <c r="AD19" t="n">
-        <v>130160.3518926262</v>
+        <v>152326.7113886857</v>
       </c>
       <c r="AE19" t="n">
-        <v>178091.1357288695</v>
+        <v>208420.1267021265</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.670584306220891e-06</v>
+        <v>5.941156465456464e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH19" t="n">
-        <v>161094.3676874349</v>
+        <v>188528.80232922</v>
       </c>
     </row>
     <row r="20">
@@ -10927,28 +10927,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>128.7748434478053</v>
+        <v>150.9412029438648</v>
       </c>
       <c r="AB20" t="n">
-        <v>176.1954219503478</v>
+        <v>206.5244129236048</v>
       </c>
       <c r="AC20" t="n">
-        <v>159.3795781712836</v>
+        <v>186.8140128130688</v>
       </c>
       <c r="AD20" t="n">
-        <v>128774.8434478053</v>
+        <v>150941.2029438648</v>
       </c>
       <c r="AE20" t="n">
-        <v>176195.4219503478</v>
+        <v>206524.4129236047</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.696676062242942e-06</v>
+        <v>5.983388217148643e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH20" t="n">
-        <v>159379.5781712836</v>
+        <v>186814.0128130688</v>
       </c>
     </row>
     <row r="21">
@@ -11033,28 +11033,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>127.290724881436</v>
+        <v>149.4570843774956</v>
       </c>
       <c r="AB21" t="n">
-        <v>174.1647854531522</v>
+        <v>204.4937764264092</v>
       </c>
       <c r="AC21" t="n">
-        <v>157.5427427713636</v>
+        <v>184.9771774131487</v>
       </c>
       <c r="AD21" t="n">
-        <v>127290.724881436</v>
+        <v>149457.0843774956</v>
       </c>
       <c r="AE21" t="n">
-        <v>174164.7854531522</v>
+        <v>204493.7764264092</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.722964366332957e-06</v>
+        <v>6.025938098797068e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.092592592592593</v>
       </c>
       <c r="AH21" t="n">
-        <v>157542.7427713636</v>
+        <v>184977.1774131487</v>
       </c>
     </row>
     <row r="22">
@@ -11139,28 +11139,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>126.0471899412089</v>
+        <v>148.2135494372684</v>
       </c>
       <c r="AB22" t="n">
-        <v>172.4633260870447</v>
+        <v>202.7923170603017</v>
       </c>
       <c r="AC22" t="n">
-        <v>156.0036682991436</v>
+        <v>183.4381029409287</v>
       </c>
       <c r="AD22" t="n">
-        <v>126047.1899412089</v>
+        <v>148213.5494372684</v>
       </c>
       <c r="AE22" t="n">
-        <v>172463.3260870447</v>
+        <v>202792.3170603017</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.745419983097698e-06</v>
+        <v>6.062284446298624e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.061728395061729</v>
       </c>
       <c r="AH22" t="n">
-        <v>156003.6682991436</v>
+        <v>183438.1029409287</v>
       </c>
     </row>
     <row r="23">
@@ -11245,28 +11245,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>125.1754764134855</v>
+        <v>147.341835909545</v>
       </c>
       <c r="AB23" t="n">
-        <v>171.2706091811274</v>
+        <v>201.5996001543843</v>
       </c>
       <c r="AC23" t="n">
-        <v>154.924782620738</v>
+        <v>182.3592172625231</v>
       </c>
       <c r="AD23" t="n">
-        <v>125175.4764134855</v>
+        <v>147341.835909545</v>
       </c>
       <c r="AE23" t="n">
-        <v>171270.6091811274</v>
+        <v>201599.6001543844</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.764878241826008e-06</v>
+        <v>6.093779311967367e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.034722222222223</v>
       </c>
       <c r="AH23" t="n">
-        <v>154924.782620738</v>
+        <v>182359.2172625231</v>
       </c>
     </row>
     <row r="24">
@@ -11351,28 +11351,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>124.9330494760308</v>
+        <v>147.0994089720904</v>
       </c>
       <c r="AB24" t="n">
-        <v>170.9389099501804</v>
+        <v>201.2679009234375</v>
       </c>
       <c r="AC24" t="n">
-        <v>154.6247402988497</v>
+        <v>182.0591749406348</v>
       </c>
       <c r="AD24" t="n">
-        <v>124933.0494760308</v>
+        <v>147099.4089720904</v>
       </c>
       <c r="AE24" t="n">
-        <v>170938.9099501804</v>
+        <v>201267.9009234374</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.763993775520176e-06</v>
+        <v>6.092347727164242e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.034722222222223</v>
       </c>
       <c r="AH24" t="n">
-        <v>154624.7402988497</v>
+        <v>182059.1749406348</v>
       </c>
     </row>
     <row r="25">
@@ -11457,28 +11457,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>124.9544326063662</v>
+        <v>147.1207921024257</v>
       </c>
       <c r="AB25" t="n">
-        <v>170.9681672924624</v>
+        <v>201.2971582657194</v>
       </c>
       <c r="AC25" t="n">
-        <v>154.6512053614472</v>
+        <v>182.0856400032324</v>
       </c>
       <c r="AD25" t="n">
-        <v>124954.4326063662</v>
+        <v>147120.7921024257</v>
       </c>
       <c r="AE25" t="n">
-        <v>170968.1672924624</v>
+        <v>201297.1582657194</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.762568802027446e-06</v>
+        <v>6.090041284981431e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>5.038580246913581</v>
       </c>
       <c r="AH25" t="n">
-        <v>154651.2053614472</v>
+        <v>182085.6400032323</v>
       </c>
     </row>
     <row r="26">
@@ -11563,28 +11563,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>125.0259335122312</v>
+        <v>147.1922930082907</v>
       </c>
       <c r="AB26" t="n">
-        <v>171.0659979862642</v>
+        <v>201.3949889595211</v>
       </c>
       <c r="AC26" t="n">
-        <v>154.7396992311388</v>
+        <v>182.1741338729239</v>
       </c>
       <c r="AD26" t="n">
-        <v>125025.9335122312</v>
+        <v>147192.2930082907</v>
       </c>
       <c r="AE26" t="n">
-        <v>171065.9979862642</v>
+        <v>201394.9889595211</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.762224842908511e-06</v>
+        <v>6.089484557557993e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>5.038580246913581</v>
       </c>
       <c r="AH26" t="n">
-        <v>154739.6992311388</v>
+        <v>182174.1338729239</v>
       </c>
     </row>
   </sheetData>
@@ -11860,28 +11860,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.1519013069211</v>
+        <v>133.5330229733175</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4004938750091</v>
+        <v>182.705773093216</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.1917449859285</v>
+        <v>165.2685905384138</v>
       </c>
       <c r="AD2" t="n">
-        <v>101151.9013069212</v>
+        <v>133533.0229733175</v>
       </c>
       <c r="AE2" t="n">
-        <v>138400.4938750091</v>
+        <v>182705.773093216</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.595948459177374e-06</v>
+        <v>7.707773807577165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.357253086419754</v>
       </c>
       <c r="AH2" t="n">
-        <v>125191.7449859285</v>
+        <v>165268.5905384138</v>
       </c>
     </row>
   </sheetData>
@@ -12157,28 +12157,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.71717293511421</v>
+        <v>112.4737503938238</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.227970519641</v>
+        <v>153.8915472804313</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.9900729823673</v>
+        <v>139.2043539961722</v>
       </c>
       <c r="AD2" t="n">
-        <v>93717.17293511421</v>
+        <v>112473.7503938238</v>
       </c>
       <c r="AE2" t="n">
-        <v>128227.970519641</v>
+        <v>153891.5472804313</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.392808855302775e-06</v>
+        <v>8.09345395550291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>115990.0729823673</v>
+        <v>139204.3539961722</v>
       </c>
     </row>
     <row r="3">
@@ -12263,28 +12263,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>91.8460180043058</v>
+        <v>110.6025954630154</v>
       </c>
       <c r="AB3" t="n">
-        <v>125.6677737937807</v>
+        <v>151.3313505545711</v>
       </c>
       <c r="AC3" t="n">
-        <v>113.6742178387637</v>
+        <v>136.8884988525686</v>
       </c>
       <c r="AD3" t="n">
-        <v>91846.01800430581</v>
+        <v>110602.5954630154</v>
       </c>
       <c r="AE3" t="n">
-        <v>125667.7737937807</v>
+        <v>151331.3505545711</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.485811325881967e-06</v>
+        <v>8.264804733143067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.05787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>113674.2178387637</v>
+        <v>136888.4988525686</v>
       </c>
     </row>
   </sheetData>
@@ -12560,28 +12560,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.8766032983611</v>
+        <v>240.8337114464926</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.1117424492049</v>
+        <v>329.5193088344229</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.1417796611617</v>
+        <v>298.0704484826183</v>
       </c>
       <c r="AD2" t="n">
-        <v>198876.6032983611</v>
+        <v>240833.7114464926</v>
       </c>
       <c r="AE2" t="n">
-        <v>272111.742449205</v>
+        <v>329519.3088344229</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.606851503049979e-06</v>
+        <v>4.383887457105094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.712191358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>246141.7796611617</v>
+        <v>298070.4484826183</v>
       </c>
     </row>
     <row r="3">
@@ -12666,28 +12666,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.2249551282625</v>
+        <v>206.0967224218224</v>
       </c>
       <c r="AB3" t="n">
-        <v>224.6998287000744</v>
+        <v>281.9906279630949</v>
       </c>
       <c r="AC3" t="n">
-        <v>203.2547924171942</v>
+        <v>255.077838206712</v>
       </c>
       <c r="AD3" t="n">
-        <v>164224.9551282625</v>
+        <v>206096.7224218224</v>
       </c>
       <c r="AE3" t="n">
-        <v>224699.8287000745</v>
+        <v>281990.6279630949</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.981574354505013e-06</v>
+        <v>5.014051011286219e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.743827160493828</v>
       </c>
       <c r="AH3" t="n">
-        <v>203254.7924171942</v>
+        <v>255077.838206712</v>
       </c>
     </row>
     <row r="4">
@@ -12772,28 +12772,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.5237798807625</v>
+        <v>182.9063596458406</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.3215203901483</v>
+        <v>250.2605505264126</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.535045461753</v>
+        <v>226.3760348271332</v>
       </c>
       <c r="AD4" t="n">
-        <v>151523.7798807625</v>
+        <v>182906.3596458406</v>
       </c>
       <c r="AE4" t="n">
-        <v>207321.5203901483</v>
+        <v>250260.5505264126</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.245235398386935e-06</v>
+        <v>5.457444254763591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.195987654320987</v>
       </c>
       <c r="AH4" t="n">
-        <v>187535.045461753</v>
+        <v>226376.0348271332</v>
       </c>
     </row>
     <row r="5">
@@ -12878,28 +12878,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.9502309030803</v>
+        <v>164.4180620141789</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.9083712717462</v>
+        <v>224.9640460606597</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.5472916276243</v>
+        <v>203.4937932437167</v>
       </c>
       <c r="AD5" t="n">
-        <v>132950.2309030803</v>
+        <v>164418.0620141789</v>
       </c>
       <c r="AE5" t="n">
-        <v>181908.3712717462</v>
+        <v>224964.0460606597</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.44192580748169e-06</v>
+        <v>5.78821438737549e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.84104938271605</v>
       </c>
       <c r="AH5" t="n">
-        <v>164547.2916276243</v>
+        <v>203493.7932437167</v>
       </c>
     </row>
     <row r="6">
@@ -12984,28 +12984,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.4607958888896</v>
+        <v>158.9286269999883</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.3974841085535</v>
+        <v>217.453158897467</v>
       </c>
       <c r="AC6" t="n">
-        <v>157.753232993688</v>
+        <v>196.6997346097804</v>
       </c>
       <c r="AD6" t="n">
-        <v>127460.7958888896</v>
+        <v>158928.6269999883</v>
       </c>
       <c r="AE6" t="n">
-        <v>174397.4841085535</v>
+        <v>217453.158897467</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.590720486327883e-06</v>
+        <v>6.03843927571862e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.597993827160494</v>
       </c>
       <c r="AH6" t="n">
-        <v>157753.232993688</v>
+        <v>196699.7346097804</v>
       </c>
     </row>
     <row r="7">
@@ -13090,28 +13090,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>122.9894139103421</v>
+        <v>154.2866528208486</v>
       </c>
       <c r="AB7" t="n">
-        <v>168.2795420220571</v>
+        <v>211.1018050361238</v>
       </c>
       <c r="AC7" t="n">
-        <v>152.2191787133393</v>
+        <v>190.9545450467806</v>
       </c>
       <c r="AD7" t="n">
-        <v>122989.4139103421</v>
+        <v>154286.6528208486</v>
       </c>
       <c r="AE7" t="n">
-        <v>168279.5420220571</v>
+        <v>211101.8050361238</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.717625930457648e-06</v>
+        <v>6.251853497475371e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.408950617283951</v>
       </c>
       <c r="AH7" t="n">
-        <v>152219.1787133393</v>
+        <v>190954.5450467806</v>
       </c>
     </row>
     <row r="8">
@@ -13196,28 +13196,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>119.6389198644694</v>
+        <v>140.6175634470862</v>
       </c>
       <c r="AB8" t="n">
-        <v>163.6952482551312</v>
+        <v>192.3991539172886</v>
       </c>
       <c r="AC8" t="n">
-        <v>148.0724035094305</v>
+        <v>174.0368487013854</v>
       </c>
       <c r="AD8" t="n">
-        <v>119638.9198644694</v>
+        <v>140617.5634470862</v>
       </c>
       <c r="AE8" t="n">
-        <v>163695.2482551312</v>
+        <v>192399.1539172886</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.815449962749872e-06</v>
+        <v>6.416362119338787e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.270061728395062</v>
       </c>
       <c r="AH8" t="n">
-        <v>148072.4035094305</v>
+        <v>174036.8487013854</v>
       </c>
     </row>
     <row r="9">
@@ -13302,28 +13302,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>116.1373960364624</v>
+        <v>137.1160396190793</v>
       </c>
       <c r="AB9" t="n">
-        <v>158.9043088773255</v>
+        <v>187.608214539483</v>
       </c>
       <c r="AC9" t="n">
-        <v>143.7387046617155</v>
+        <v>169.7031498536704</v>
       </c>
       <c r="AD9" t="n">
-        <v>116137.3960364625</v>
+        <v>137116.0396190793</v>
       </c>
       <c r="AE9" t="n">
-        <v>158904.3088773256</v>
+        <v>187608.214539483</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.923019916213459e-06</v>
+        <v>6.59726025227757e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.123456790123456</v>
       </c>
       <c r="AH9" t="n">
-        <v>143738.7046617155</v>
+        <v>169703.1498536704</v>
       </c>
     </row>
     <row r="10">
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.6074506783969</v>
+        <v>133.5860942610137</v>
       </c>
       <c r="AB10" t="n">
-        <v>154.0744819082244</v>
+        <v>182.7783875703818</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.3698295998391</v>
+        <v>165.334274791794</v>
       </c>
       <c r="AD10" t="n">
-        <v>112607.4506783969</v>
+        <v>133586.0942610137</v>
       </c>
       <c r="AE10" t="n">
-        <v>154074.4819082244</v>
+        <v>182778.3875703818</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.022407465271144e-06</v>
+        <v>6.764398207468586e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>139369.8295998391</v>
+        <v>165334.274791794</v>
       </c>
     </row>
     <row r="11">
@@ -13514,28 +13514,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>101.7583188245401</v>
+        <v>133.1408090810671</v>
       </c>
       <c r="AB11" t="n">
-        <v>139.2302210758677</v>
+        <v>182.1691287425835</v>
       </c>
       <c r="AC11" t="n">
-        <v>125.9422841872668</v>
+        <v>164.7831627714205</v>
       </c>
       <c r="AD11" t="n">
-        <v>101758.3188245401</v>
+        <v>133140.8090810672</v>
       </c>
       <c r="AE11" t="n">
-        <v>139230.2210758677</v>
+        <v>182169.1287425835</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.023554044232481e-06</v>
+        <v>6.766326385242158e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.996141975308642</v>
       </c>
       <c r="AH11" t="n">
-        <v>125942.2841872668</v>
+        <v>164783.1627714205</v>
       </c>
     </row>
     <row r="12">
@@ -13620,28 +13620,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>99.90748558307831</v>
+        <v>131.2899758396053</v>
       </c>
       <c r="AB12" t="n">
-        <v>136.697829381901</v>
+        <v>179.6367370486169</v>
       </c>
       <c r="AC12" t="n">
-        <v>123.6515804023375</v>
+        <v>162.4924589864911</v>
       </c>
       <c r="AD12" t="n">
-        <v>99907.48558307831</v>
+        <v>131289.9758396053</v>
       </c>
       <c r="AE12" t="n">
-        <v>136697.829381901</v>
+        <v>179636.7370486169</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.072544236216866e-06</v>
+        <v>6.848712162840246e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.938271604938272</v>
       </c>
       <c r="AH12" t="n">
-        <v>123651.5804023375</v>
+        <v>162492.4589864911</v>
       </c>
     </row>
     <row r="13">
@@ -13726,28 +13726,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>99.97301532565767</v>
+        <v>131.3555055821847</v>
       </c>
       <c r="AB13" t="n">
-        <v>136.7874900666663</v>
+        <v>179.7263977333822</v>
       </c>
       <c r="AC13" t="n">
-        <v>123.7326839971884</v>
+        <v>162.573562581342</v>
       </c>
       <c r="AD13" t="n">
-        <v>99973.01532565767</v>
+        <v>131355.5055821847</v>
       </c>
       <c r="AE13" t="n">
-        <v>136787.4900666663</v>
+        <v>179726.3977333822</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.06373642510478e-06</v>
+        <v>6.833900251761442e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH13" t="n">
-        <v>123732.6839971884</v>
+        <v>162573.562581342</v>
       </c>
     </row>
   </sheetData>
@@ -14023,28 +14023,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.1888242449379</v>
+        <v>140.3301169676447</v>
       </c>
       <c r="AB2" t="n">
-        <v>152.1334546365856</v>
+        <v>192.0058569628732</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.614051246756</v>
+        <v>173.6810874563035</v>
       </c>
       <c r="AD2" t="n">
-        <v>111188.8242449379</v>
+        <v>140330.1169676447</v>
       </c>
       <c r="AE2" t="n">
-        <v>152133.4546365856</v>
+        <v>192005.8569628732</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.832170068814467e-06</v>
+        <v>6.845892162754554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.698302469135802</v>
       </c>
       <c r="AH2" t="n">
-        <v>137614.051246756</v>
+        <v>173681.0874563035</v>
       </c>
     </row>
     <row r="3">
@@ -14129,28 +14129,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.0691087173622</v>
+        <v>122.4967267077177</v>
       </c>
       <c r="AB3" t="n">
-        <v>141.0237016351946</v>
+        <v>167.6054256556014</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.564597479178</v>
+        <v>151.6093990667696</v>
       </c>
       <c r="AD3" t="n">
-        <v>103069.1087173622</v>
+        <v>122496.7267077177</v>
       </c>
       <c r="AE3" t="n">
-        <v>141023.7016351946</v>
+        <v>167605.4256556014</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137924104080703e-06</v>
+        <v>7.392099433353912e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>127564.597479178</v>
+        <v>151609.3990667696</v>
       </c>
     </row>
     <row r="4">
@@ -14235,28 +14235,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.80502271633095</v>
+        <v>117.2326407066865</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.8211469335033</v>
+        <v>160.40287095391</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.0494444893648</v>
+        <v>145.0942460769563</v>
       </c>
       <c r="AD4" t="n">
-        <v>97805.02271633095</v>
+        <v>117232.6407066865</v>
       </c>
       <c r="AE4" t="n">
-        <v>133821.1469335033</v>
+        <v>160402.87095391</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.348589879582541e-06</v>
+        <v>7.768438467261874e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.023148148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>121049.4444893648</v>
+        <v>145094.2460769563</v>
       </c>
     </row>
     <row r="5">
@@ -14341,28 +14341,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.90599274707216</v>
+        <v>115.9619446152073</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.908613298304</v>
+        <v>158.6642485023939</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.5601421344318</v>
+        <v>143.5215553120405</v>
       </c>
       <c r="AD5" t="n">
-        <v>86905.99274707216</v>
+        <v>115961.9446152073</v>
       </c>
       <c r="AE5" t="n">
-        <v>118908.613298304</v>
+        <v>158664.248502394</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.39443600482609e-06</v>
+        <v>7.850339224238083e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.969135802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>107560.1421344318</v>
+        <v>143521.5553120405</v>
       </c>
     </row>
     <row r="6">
@@ -14447,28 +14447,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.96382963359487</v>
+        <v>116.01978150173</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.9877482780277</v>
+        <v>158.7433834821176</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.6317245827573</v>
+        <v>143.593137760366</v>
       </c>
       <c r="AD6" t="n">
-        <v>86963.82963359487</v>
+        <v>116019.78150173</v>
       </c>
       <c r="AE6" t="n">
-        <v>118987.7482780277</v>
+        <v>158743.3834821176</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.393473802197521e-06</v>
+        <v>7.848620319462038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.969135802469136</v>
       </c>
       <c r="AH6" t="n">
-        <v>107631.7245827573</v>
+        <v>143593.137760366</v>
       </c>
     </row>
   </sheetData>
@@ -14744,28 +14744,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.3529278985399</v>
+        <v>346.846607472966</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.0101736516881</v>
+        <v>474.5708301368885</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.833764096175</v>
+        <v>429.2784561729665</v>
       </c>
       <c r="AD2" t="n">
-        <v>292352.9278985399</v>
+        <v>346846.607472966</v>
       </c>
       <c r="AE2" t="n">
-        <v>400010.1736516882</v>
+        <v>474570.8301368885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.01636807834385e-06</v>
+        <v>3.300572425253642e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.57175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>361833.764096175</v>
+        <v>429278.4561729665</v>
       </c>
     </row>
     <row r="3">
@@ -14850,28 +14850,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.6897923829452</v>
+        <v>277.1994846964685</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.7446836042167</v>
+        <v>379.2765641398818</v>
       </c>
       <c r="AC3" t="n">
-        <v>289.228699765607</v>
+        <v>343.0789411763718</v>
       </c>
       <c r="AD3" t="n">
-        <v>233689.7923829452</v>
+        <v>277199.4846964685</v>
       </c>
       <c r="AE3" t="n">
-        <v>319744.6836042167</v>
+        <v>379276.5641398818</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.406364990512174e-06</v>
+        <v>3.938954409208721e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>289228.699765607</v>
+        <v>343078.9411763718</v>
       </c>
     </row>
     <row r="4">
@@ -14956,28 +14956,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>199.2376067606414</v>
+        <v>231.9339040138476</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.6056833126453</v>
+        <v>317.3421996732909</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.5885795018458</v>
+        <v>287.0555055291407</v>
       </c>
       <c r="AD4" t="n">
-        <v>199237.6067606414</v>
+        <v>231933.9040138476</v>
       </c>
       <c r="AE4" t="n">
-        <v>272605.6833126453</v>
+        <v>317342.1996732909</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.692809618407996e-06</v>
+        <v>4.40783271091816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.16820987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>246588.5795018458</v>
+        <v>287055.5055291407</v>
       </c>
     </row>
     <row r="5">
@@ -15062,28 +15062,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.343115114167</v>
+        <v>218.8527179191357</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.9121856913824</v>
+        <v>299.4439437573143</v>
       </c>
       <c r="AC5" t="n">
-        <v>217.0153034079337</v>
+        <v>270.8654340374193</v>
       </c>
       <c r="AD5" t="n">
-        <v>175343.115114167</v>
+        <v>218852.7179191357</v>
       </c>
       <c r="AE5" t="n">
-        <v>239912.1856913824</v>
+        <v>299443.9437573144</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.894161282271196e-06</v>
+        <v>4.737423204173572e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.666666666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>217015.3034079337</v>
+        <v>270865.4340374193</v>
       </c>
     </row>
     <row r="6">
@@ -15168,28 +15168,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.9764156274565</v>
+        <v>198.5873720260911</v>
       </c>
       <c r="AB6" t="n">
-        <v>227.0962542240543</v>
+        <v>271.7160034625023</v>
       </c>
       <c r="AC6" t="n">
-        <v>205.4225064525706</v>
+        <v>245.7838094479266</v>
       </c>
       <c r="AD6" t="n">
-        <v>165976.4156274565</v>
+        <v>198587.3720260912</v>
       </c>
       <c r="AE6" t="n">
-        <v>227096.2542240543</v>
+        <v>271716.0034625023</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.066698397467264e-06</v>
+        <v>5.019847455412805e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.292438271604938</v>
       </c>
       <c r="AH6" t="n">
-        <v>205422.5064525706</v>
+        <v>245783.8094479266</v>
       </c>
     </row>
     <row r="7">
@@ -15274,28 +15274,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.9301392281591</v>
+        <v>192.5410956267937</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.8234721116508</v>
+        <v>263.4432213500988</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.9392670540497</v>
+        <v>238.3005700494057</v>
       </c>
       <c r="AD7" t="n">
-        <v>159930.1392281591</v>
+        <v>192541.0956267937</v>
       </c>
       <c r="AE7" t="n">
-        <v>218823.4721116508</v>
+        <v>263443.2213500988</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.190660987045652e-06</v>
+        <v>5.222760559086574e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.049382716049383</v>
       </c>
       <c r="AH7" t="n">
-        <v>197939.2670540496</v>
+        <v>238300.5700494057</v>
       </c>
     </row>
     <row r="8">
@@ -15380,28 +15380,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.662024634367</v>
+        <v>176.3582323790222</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.5647200258723</v>
+        <v>241.3011139169695</v>
       </c>
       <c r="AC8" t="n">
-        <v>177.804859026976</v>
+        <v>218.2716742730443</v>
       </c>
       <c r="AD8" t="n">
-        <v>143662.024634367</v>
+        <v>176358.2323790222</v>
       </c>
       <c r="AE8" t="n">
-        <v>196564.7200258723</v>
+        <v>241301.1139169695</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.309771126588081e-06</v>
+        <v>5.417730736587477e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.829475308641975</v>
       </c>
       <c r="AH8" t="n">
-        <v>177804.859026976</v>
+        <v>218271.6742730443</v>
       </c>
     </row>
     <row r="9">
@@ -15486,28 +15486,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.7110544051736</v>
+        <v>172.4072621498288</v>
       </c>
       <c r="AB9" t="n">
-        <v>191.1588282537879</v>
+        <v>235.8952221448851</v>
       </c>
       <c r="AC9" t="n">
-        <v>172.9148979784009</v>
+        <v>213.3817132244691</v>
       </c>
       <c r="AD9" t="n">
-        <v>139711.0544051736</v>
+        <v>172407.2621498288</v>
       </c>
       <c r="AE9" t="n">
-        <v>191158.8282537879</v>
+        <v>235895.222144885</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.40101719736733e-06</v>
+        <v>5.567090502972042e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.675154320987655</v>
       </c>
       <c r="AH9" t="n">
-        <v>172914.8979784009</v>
+        <v>213381.7132244691</v>
       </c>
     </row>
     <row r="10">
@@ -15592,28 +15592,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.5861566151456</v>
+        <v>169.2823643598008</v>
       </c>
       <c r="AB10" t="n">
-        <v>186.883205236713</v>
+        <v>231.6195991278102</v>
       </c>
       <c r="AC10" t="n">
-        <v>169.0473344211996</v>
+        <v>209.5141496672679</v>
       </c>
       <c r="AD10" t="n">
-        <v>136586.1566151456</v>
+        <v>169282.3643598008</v>
       </c>
       <c r="AE10" t="n">
-        <v>186883.205236713</v>
+        <v>231619.5991278102</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.477005564425268e-06</v>
+        <v>5.691475089122345e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.551697530864198</v>
       </c>
       <c r="AH10" t="n">
-        <v>169047.3344211996</v>
+        <v>209514.1496672679</v>
       </c>
     </row>
     <row r="11">
@@ -15698,28 +15698,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.3565033579545</v>
+        <v>165.8821189020175</v>
       </c>
       <c r="AB11" t="n">
-        <v>182.4642511679805</v>
+        <v>226.9672332842308</v>
       </c>
       <c r="AC11" t="n">
-        <v>165.0501191267445</v>
+        <v>205.3057990901618</v>
       </c>
       <c r="AD11" t="n">
-        <v>133356.5033579545</v>
+        <v>165882.1189020175</v>
       </c>
       <c r="AE11" t="n">
-        <v>182464.2511679805</v>
+        <v>226967.2332842308</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.558496709874499e-06</v>
+        <v>5.824867117324349e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.424382716049383</v>
       </c>
       <c r="AH11" t="n">
-        <v>165050.1191267445</v>
+        <v>205305.7990901618</v>
       </c>
     </row>
     <row r="12">
@@ -15804,28 +15804,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>130.3143682680839</v>
+        <v>162.8399838121469</v>
       </c>
       <c r="AB12" t="n">
-        <v>178.3018677284936</v>
+        <v>222.8048498447438</v>
       </c>
       <c r="AC12" t="n">
-        <v>161.2849877207791</v>
+        <v>201.5406676841963</v>
       </c>
       <c r="AD12" t="n">
-        <v>130314.3682680839</v>
+        <v>162839.9838121469</v>
       </c>
       <c r="AE12" t="n">
-        <v>178301.8677284936</v>
+        <v>222804.8498447438</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.631233435155763e-06</v>
+        <v>5.943929124080466e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.316358024691358</v>
       </c>
       <c r="AH12" t="n">
-        <v>161284.9877207791</v>
+        <v>201540.6676841963</v>
       </c>
     </row>
     <row r="13">
@@ -15910,28 +15910,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.9207527543968</v>
+        <v>149.7183140927179</v>
       </c>
       <c r="AB13" t="n">
-        <v>175.0268173838048</v>
+        <v>204.851202447418</v>
       </c>
       <c r="AC13" t="n">
-        <v>158.3225035844244</v>
+        <v>185.3004911963631</v>
       </c>
       <c r="AD13" t="n">
-        <v>127920.7527543968</v>
+        <v>149718.3140927179</v>
       </c>
       <c r="AE13" t="n">
-        <v>175026.8173838048</v>
+        <v>204851.202447418</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.68290952677581e-06</v>
+        <v>6.028517193529618e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH13" t="n">
-        <v>158322.5035844244</v>
+        <v>185300.4911963631</v>
       </c>
     </row>
     <row r="14">
@@ -16016,28 +16016,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>128.2835847681001</v>
+        <v>150.0811461064213</v>
       </c>
       <c r="AB14" t="n">
-        <v>175.5232601519722</v>
+        <v>205.3476452155854</v>
       </c>
       <c r="AC14" t="n">
-        <v>158.7715665515598</v>
+        <v>185.7495541634985</v>
       </c>
       <c r="AD14" t="n">
-        <v>128283.5847681001</v>
+        <v>150081.1461064213</v>
       </c>
       <c r="AE14" t="n">
-        <v>175523.2601519722</v>
+        <v>205347.6452155854</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.681108617484114e-06</v>
+        <v>6.025569303403607e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.243055555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>158771.5665515598</v>
+        <v>185749.5541634985</v>
       </c>
     </row>
     <row r="15">
@@ -16122,28 +16122,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>125.9581612512174</v>
+        <v>147.7557225895386</v>
       </c>
       <c r="AB15" t="n">
-        <v>172.3415131057298</v>
+        <v>202.165898169343</v>
       </c>
       <c r="AC15" t="n">
-        <v>155.8934809777998</v>
+        <v>182.8714685897385</v>
       </c>
       <c r="AD15" t="n">
-        <v>125958.1612512174</v>
+        <v>147755.7225895386</v>
       </c>
       <c r="AE15" t="n">
-        <v>172341.5131057298</v>
+        <v>202165.898169343</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.736886780268577e-06</v>
+        <v>6.116872011473119e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH15" t="n">
-        <v>155893.4809777997</v>
+        <v>182871.4685897385</v>
       </c>
     </row>
     <row r="16">
@@ -16228,28 +16228,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>123.8100837824685</v>
+        <v>145.6076451207897</v>
       </c>
       <c r="AB16" t="n">
-        <v>169.4024187464993</v>
+        <v>199.2268038101125</v>
       </c>
       <c r="AC16" t="n">
-        <v>153.2348896591685</v>
+        <v>180.2128772711072</v>
       </c>
       <c r="AD16" t="n">
-        <v>123810.0837824685</v>
+        <v>145607.6451207897</v>
       </c>
       <c r="AE16" t="n">
-        <v>169402.4187464993</v>
+        <v>199226.8038101125</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.786611886822621e-06</v>
+        <v>6.198266533285761e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.096450617283951</v>
       </c>
       <c r="AH16" t="n">
-        <v>153234.8896591685</v>
+        <v>180212.8772711072</v>
       </c>
     </row>
     <row r="17">
@@ -16334,28 +16334,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>122.5449831352639</v>
+        <v>144.3425444735851</v>
       </c>
       <c r="AB17" t="n">
-        <v>167.6714522286934</v>
+        <v>197.4958372923066</v>
       </c>
       <c r="AC17" t="n">
-        <v>151.6691241563946</v>
+        <v>178.6471117683334</v>
       </c>
       <c r="AD17" t="n">
-        <v>122544.9831352639</v>
+        <v>144342.5444735851</v>
       </c>
       <c r="AE17" t="n">
-        <v>167671.4522286934</v>
+        <v>197495.8372923066</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.808322848839174e-06</v>
+        <v>6.233804986471561e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH17" t="n">
-        <v>151669.1241563946</v>
+        <v>178647.1117683334</v>
       </c>
     </row>
     <row r="18">
@@ -16440,28 +16440,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>120.7008011435781</v>
+        <v>142.4983624818993</v>
       </c>
       <c r="AB18" t="n">
-        <v>165.1481610681027</v>
+        <v>194.9725461317159</v>
       </c>
       <c r="AC18" t="n">
-        <v>149.3866523627085</v>
+        <v>176.3646399746472</v>
       </c>
       <c r="AD18" t="n">
-        <v>120700.8011435781</v>
+        <v>142498.3624818993</v>
       </c>
       <c r="AE18" t="n">
-        <v>165148.1610681027</v>
+        <v>194972.5461317159</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.854746288358441e-06</v>
+        <v>6.309795043053181e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH18" t="n">
-        <v>149386.6523627085</v>
+        <v>176364.6399746473</v>
       </c>
     </row>
     <row r="19">
@@ -16546,28 +16546,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>108.6326262623006</v>
+        <v>141.2434931523842</v>
       </c>
       <c r="AB19" t="n">
-        <v>148.635951785247</v>
+        <v>193.2555785541465</v>
       </c>
       <c r="AC19" t="n">
-        <v>134.450345158772</v>
+        <v>174.8115373729014</v>
       </c>
       <c r="AD19" t="n">
-        <v>108632.6262623006</v>
+        <v>141243.4931523842</v>
       </c>
       <c r="AE19" t="n">
-        <v>148635.951785247</v>
+        <v>193255.5785541465</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.875856947277763e-06</v>
+        <v>6.344350866196978e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH19" t="n">
-        <v>134450.345158772</v>
+        <v>174811.5373729014</v>
       </c>
     </row>
     <row r="20">
@@ -16652,28 +16652,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>108.4978050152008</v>
+        <v>141.1086719052843</v>
       </c>
       <c r="AB20" t="n">
-        <v>148.4514834070714</v>
+        <v>193.0711101759709</v>
       </c>
       <c r="AC20" t="n">
-        <v>134.2834821837064</v>
+        <v>174.6446743978359</v>
       </c>
       <c r="AD20" t="n">
-        <v>108497.8050152007</v>
+        <v>141108.6719052843</v>
       </c>
       <c r="AE20" t="n">
-        <v>148451.4834070714</v>
+        <v>193071.1101759709</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.877757907085663e-06</v>
+        <v>6.347462527996657e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4.976851851851852</v>
       </c>
       <c r="AH20" t="n">
-        <v>134283.4821837064</v>
+        <v>174644.6743978359</v>
       </c>
     </row>
     <row r="21">
@@ -16758,28 +16758,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>108.5538476637958</v>
+        <v>141.1647145538793</v>
       </c>
       <c r="AB21" t="n">
-        <v>148.5281634313062</v>
+        <v>193.1477902002058</v>
       </c>
       <c r="AC21" t="n">
-        <v>134.3528439740494</v>
+        <v>174.7140361881789</v>
       </c>
       <c r="AD21" t="n">
-        <v>108553.8476637958</v>
+        <v>141164.7145538793</v>
       </c>
       <c r="AE21" t="n">
-        <v>148528.1634313062</v>
+        <v>193147.7902002058</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.876607326149302e-06</v>
+        <v>6.345579153749483e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>5</v>
+        <v>4.976851851851852</v>
       </c>
       <c r="AH21" t="n">
-        <v>134352.8439740494</v>
+        <v>174714.0361881789</v>
       </c>
     </row>
   </sheetData>
@@ -17055,28 +17055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.3231670037627</v>
+        <v>177.6802113899143</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.5740565338791</v>
+        <v>243.1099039212691</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.3361114893081</v>
+        <v>219.9078358979868</v>
       </c>
       <c r="AD2" t="n">
-        <v>147323.1670037627</v>
+        <v>177680.2113899143</v>
       </c>
       <c r="AE2" t="n">
-        <v>201574.056533879</v>
+        <v>243109.9039212691</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.21859082881636e-06</v>
+        <v>5.573926654111732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.512345679012345</v>
       </c>
       <c r="AH2" t="n">
-        <v>182336.1114893081</v>
+        <v>219907.8358979867</v>
       </c>
     </row>
     <row r="3">
@@ -17161,28 +17161,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9537855009587</v>
+        <v>154.2254890325387</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.59903777741</v>
+        <v>211.0181180426024</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.4127436457256</v>
+        <v>190.8788450224654</v>
       </c>
       <c r="AD3" t="n">
-        <v>123953.7855009587</v>
+        <v>154225.4890325387</v>
       </c>
       <c r="AE3" t="n">
-        <v>169599.03777741</v>
+        <v>211018.1180426024</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.561355920119868e-06</v>
+        <v>6.167524156910271e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.887345679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>153412.7436457256</v>
+        <v>190878.8450224655</v>
       </c>
     </row>
     <row r="4">
@@ -17267,28 +17267,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.8039094934347</v>
+        <v>145.9050208244225</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.4480178767673</v>
+        <v>199.6336863671129</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.325961433842</v>
+        <v>180.5809275279308</v>
       </c>
       <c r="AD4" t="n">
-        <v>115803.9094934347</v>
+        <v>145905.0208244225</v>
       </c>
       <c r="AE4" t="n">
-        <v>158448.0178767673</v>
+        <v>199633.6863671129</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.814748912010748e-06</v>
+        <v>6.606347861626131e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.493827160493828</v>
       </c>
       <c r="AH4" t="n">
-        <v>143325.961433842</v>
+        <v>180580.9275279308</v>
       </c>
     </row>
     <row r="5">
@@ -17373,28 +17373,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.8706113898956</v>
+        <v>131.0518365861666</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.6980617697565</v>
+        <v>179.3109044160998</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.2202116640592</v>
+        <v>162.1977233631124</v>
       </c>
       <c r="AD5" t="n">
-        <v>110870.6113898956</v>
+        <v>131051.8365861666</v>
       </c>
       <c r="AE5" t="n">
-        <v>151698.0617697565</v>
+        <v>179310.9044160998</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.984420077035452e-06</v>
+        <v>6.900182859445094e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.262345679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>137220.2116640592</v>
+        <v>162197.7233631124</v>
       </c>
     </row>
     <row r="6">
@@ -17479,28 +17479,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>106.3265950297267</v>
+        <v>126.5078202259978</v>
       </c>
       <c r="AB6" t="n">
-        <v>145.4807381179232</v>
+        <v>173.0935807642664</v>
       </c>
       <c r="AC6" t="n">
-        <v>131.5962606554863</v>
+        <v>156.5737723545395</v>
       </c>
       <c r="AD6" t="n">
-        <v>106326.5950297267</v>
+        <v>126507.8202259978</v>
       </c>
       <c r="AE6" t="n">
-        <v>145480.7381179231</v>
+        <v>173093.5807642665</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.137303413051947e-06</v>
+        <v>7.164944845952477e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.065586419753086</v>
       </c>
       <c r="AH6" t="n">
-        <v>131596.2606554863</v>
+        <v>156573.7723545395</v>
       </c>
     </row>
     <row r="7">
@@ -17585,28 +17585,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>93.10515912102861</v>
+        <v>123.291521798037</v>
       </c>
       <c r="AB7" t="n">
-        <v>127.3905862190656</v>
+        <v>168.6928993620604</v>
       </c>
       <c r="AC7" t="n">
-        <v>115.2326074641623</v>
+        <v>152.5930858089634</v>
       </c>
       <c r="AD7" t="n">
-        <v>93105.15912102861</v>
+        <v>123291.521798037</v>
       </c>
       <c r="AE7" t="n">
-        <v>127390.5862190656</v>
+        <v>168692.8993620604</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.241072841549284e-06</v>
+        <v>7.344651809075826e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>115232.6074641623</v>
+        <v>152593.0858089634</v>
       </c>
     </row>
     <row r="8">
@@ -17691,28 +17691,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.4549856712798</v>
+        <v>122.6413483482882</v>
       </c>
       <c r="AB8" t="n">
-        <v>126.5009902214915</v>
+        <v>167.8033033644863</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.4279132600406</v>
+        <v>151.7883916048417</v>
       </c>
       <c r="AD8" t="n">
-        <v>92454.98567127981</v>
+        <v>122641.3483482882</v>
       </c>
       <c r="AE8" t="n">
-        <v>126500.9902214915</v>
+        <v>167803.3033644863</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.26264167040449e-06</v>
+        <v>7.382004512929212e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.918981481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>114427.9132600406</v>
+        <v>151788.3916048417</v>
       </c>
     </row>
     <row r="9">
@@ -17797,28 +17797,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.43079579621873</v>
+        <v>122.6171584732271</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.467892567251</v>
+        <v>167.7702057102458</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.3979743994679</v>
+        <v>151.758452744269</v>
       </c>
       <c r="AD9" t="n">
-        <v>92430.79579621874</v>
+        <v>122617.1584732271</v>
       </c>
       <c r="AE9" t="n">
-        <v>126467.892567251</v>
+        <v>167770.2057102458</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.265684124852579e-06</v>
+        <v>7.38727340818309e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.915123456790123</v>
       </c>
       <c r="AH9" t="n">
-        <v>114397.9743994679</v>
+        <v>151758.452744269</v>
       </c>
     </row>
   </sheetData>
@@ -18094,28 +18094,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.489727545621</v>
+        <v>272.9353750638688</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.3662137168951</v>
+        <v>373.442221221319</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.268104899109</v>
+        <v>337.8014197574049</v>
       </c>
       <c r="AD2" t="n">
-        <v>230489.727545621</v>
+        <v>272935.3750638688</v>
       </c>
       <c r="AE2" t="n">
-        <v>315366.2137168951</v>
+        <v>373442.2212213189</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.39123285301099e-06</v>
+        <v>3.982091739377747e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.287037037037038</v>
       </c>
       <c r="AH2" t="n">
-        <v>285268.104899109</v>
+        <v>337801.4197574048</v>
       </c>
     </row>
     <row r="3">
@@ -18200,28 +18200,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.6801329818368</v>
+        <v>221.5783966385865</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.5287260425067</v>
+        <v>303.1733376297234</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.7596686799402</v>
+        <v>274.238899792884</v>
       </c>
       <c r="AD3" t="n">
-        <v>189680.1329818368</v>
+        <v>221578.3966385865</v>
       </c>
       <c r="AE3" t="n">
-        <v>259528.7260425066</v>
+        <v>303173.3376297234</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767736199932211e-06</v>
+        <v>4.609078302286173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.160493827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>234759.6686799402</v>
+        <v>274238.899792884</v>
       </c>
     </row>
     <row r="4">
@@ -18306,28 +18306,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.5077549288993</v>
+        <v>195.4912699316696</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.7185237466665</v>
+        <v>267.4797799865325</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.3671418312692</v>
+        <v>241.9518851949251</v>
       </c>
       <c r="AD4" t="n">
-        <v>163507.7549288993</v>
+        <v>195491.2699316696</v>
       </c>
       <c r="AE4" t="n">
-        <v>223718.5237466665</v>
+        <v>267479.7799865325</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.034986802119266e-06</v>
+        <v>5.054127563788566e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.527777777777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>202367.1418312691</v>
+        <v>241951.8851949251</v>
       </c>
     </row>
     <row r="5">
@@ -18412,28 +18412,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.2006043918673</v>
+        <v>185.0135271940454</v>
       </c>
       <c r="AB5" t="n">
-        <v>209.6158256625172</v>
+        <v>253.1436701275363</v>
       </c>
       <c r="AC5" t="n">
-        <v>189.6103854590054</v>
+        <v>228.9839935400104</v>
       </c>
       <c r="AD5" t="n">
-        <v>153200.6043918673</v>
+        <v>185013.5271940454</v>
       </c>
       <c r="AE5" t="n">
-        <v>209615.8256625172</v>
+        <v>253143.6701275363</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.252259538473532e-06</v>
+        <v>5.415949277445134e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.09182098765432</v>
       </c>
       <c r="AH5" t="n">
-        <v>189610.3854590054</v>
+        <v>228983.9935400104</v>
       </c>
     </row>
     <row r="6">
@@ -18518,28 +18518,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>136.1465324049205</v>
+        <v>168.0447065531192</v>
       </c>
       <c r="AB6" t="n">
-        <v>186.281691997432</v>
+        <v>229.9261811151004</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.5032287612463</v>
+        <v>207.9823490929635</v>
       </c>
       <c r="AD6" t="n">
-        <v>136146.5324049205</v>
+        <v>168044.7065531192</v>
       </c>
       <c r="AE6" t="n">
-        <v>186281.691997432</v>
+        <v>229926.1811151004</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.406148218879533e-06</v>
+        <v>5.672218273689835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.817901234567902</v>
       </c>
       <c r="AH6" t="n">
-        <v>168503.2287612463</v>
+        <v>207982.3490929635</v>
       </c>
     </row>
     <row r="7">
@@ -18624,28 +18624,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.2861303140647</v>
+        <v>163.1843044622634</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.6314754309196</v>
+        <v>223.275964548588</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.4876995302021</v>
+        <v>201.9668198619193</v>
       </c>
       <c r="AD7" t="n">
-        <v>131286.1303140647</v>
+        <v>163184.3044622634</v>
       </c>
       <c r="AE7" t="n">
-        <v>179631.4754309196</v>
+        <v>223275.964548588</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.53111856581805e-06</v>
+        <v>5.88032991182847e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.613425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>162487.6995302021</v>
+        <v>201966.8198619193</v>
       </c>
     </row>
     <row r="8">
@@ -18730,28 +18730,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>127.147289669594</v>
+        <v>158.8748716172005</v>
       </c>
       <c r="AB8" t="n">
-        <v>173.9685310683951</v>
+        <v>217.3796084112167</v>
       </c>
       <c r="AC8" t="n">
-        <v>157.3652186296429</v>
+        <v>196.633203678709</v>
       </c>
       <c r="AD8" t="n">
-        <v>127147.289669594</v>
+        <v>158874.8716172005</v>
       </c>
       <c r="AE8" t="n">
-        <v>173968.5310683951</v>
+        <v>217379.6084112166</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.643915475755158e-06</v>
+        <v>6.068169269556561e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.439814814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>157365.2186296429</v>
+        <v>196633.203678709</v>
       </c>
     </row>
     <row r="9">
@@ -18836,28 +18836,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.1006412522009</v>
+        <v>155.8282231998075</v>
       </c>
       <c r="AB9" t="n">
-        <v>169.799972295078</v>
+        <v>213.2110496378995</v>
       </c>
       <c r="AC9" t="n">
-        <v>153.5945012550408</v>
+        <v>192.8624863041069</v>
       </c>
       <c r="AD9" t="n">
-        <v>124100.6412522009</v>
+        <v>155828.2231998075</v>
       </c>
       <c r="AE9" t="n">
-        <v>169799.972295078</v>
+        <v>213211.0496378995</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.722914404481603e-06</v>
+        <v>6.199725249604741e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.324074074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>153594.5012550408</v>
+        <v>192862.4863041069</v>
       </c>
     </row>
     <row r="10">
@@ -18942,28 +18942,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.9059508835752</v>
+        <v>142.1714898242587</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.4288559929343</v>
+        <v>194.5253045409283</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.6405581578721</v>
+        <v>175.9600824935768</v>
       </c>
       <c r="AD10" t="n">
-        <v>120905.9508835752</v>
+        <v>142171.4898242587</v>
       </c>
       <c r="AE10" t="n">
-        <v>165428.8559929343</v>
+        <v>194525.3045409283</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.814189499635629e-06</v>
+        <v>6.351724584159758e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.19675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>149640.5581578721</v>
+        <v>175960.0824935768</v>
       </c>
     </row>
     <row r="11">
@@ -19048,28 +19048,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.4746804484793</v>
+        <v>138.7402193891629</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.7340404066707</v>
+        <v>189.8304889546646</v>
       </c>
       <c r="AC11" t="n">
-        <v>145.3938091819448</v>
+        <v>171.7133335176496</v>
       </c>
       <c r="AD11" t="n">
-        <v>117474.6804484793</v>
+        <v>138740.2193891629</v>
       </c>
       <c r="AE11" t="n">
-        <v>160734.0404066707</v>
+        <v>189830.4889546646</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.909625136549631e-06</v>
+        <v>6.510652419614582e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>145393.8091819448</v>
+        <v>171713.3335176496</v>
       </c>
     </row>
     <row r="12">
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.5895279284504</v>
+        <v>139.8550668691339</v>
       </c>
       <c r="AB12" t="n">
-        <v>162.2594239123659</v>
+        <v>191.3558724603599</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.7736122267462</v>
+        <v>173.093136562451</v>
       </c>
       <c r="AD12" t="n">
-        <v>118589.5279284504</v>
+        <v>139855.0668691339</v>
       </c>
       <c r="AE12" t="n">
-        <v>162259.4239123659</v>
+        <v>191355.8724603599</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.871050237021958e-06</v>
+        <v>6.446414096457116e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.119598765432098</v>
       </c>
       <c r="AH12" t="n">
-        <v>146773.6122267462</v>
+        <v>173093.136562451</v>
       </c>
     </row>
     <row r="13">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>115.2469869272954</v>
+        <v>136.5125258679789</v>
       </c>
       <c r="AB13" t="n">
-        <v>157.6860118520863</v>
+        <v>186.7824604000803</v>
       </c>
       <c r="AC13" t="n">
-        <v>142.6366801946741</v>
+        <v>168.9562045303788</v>
       </c>
       <c r="AD13" t="n">
-        <v>115246.9869272954</v>
+        <v>136512.5258679789</v>
       </c>
       <c r="AE13" t="n">
-        <v>157686.0118520863</v>
+        <v>186782.4604000803</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.96330126172462e-06</v>
+        <v>6.6000386349269e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.000000000000001</v>
       </c>
       <c r="AH13" t="n">
-        <v>142636.6801946741</v>
+        <v>168956.2045303788</v>
       </c>
     </row>
     <row r="14">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>103.2799045435153</v>
+        <v>135.0927378371424</v>
       </c>
       <c r="AB14" t="n">
-        <v>141.3121217841926</v>
+        <v>184.8398437796634</v>
       </c>
       <c r="AC14" t="n">
-        <v>127.825491213956</v>
+        <v>167.1989885137344</v>
       </c>
       <c r="AD14" t="n">
-        <v>103279.9045435153</v>
+        <v>135092.7378371423</v>
       </c>
       <c r="AE14" t="n">
-        <v>141312.1217841926</v>
+        <v>184839.8437796634</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.984668982368445e-06</v>
+        <v>6.635622046955539e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.972993827160495</v>
       </c>
       <c r="AH14" t="n">
-        <v>127825.491213956</v>
+        <v>167198.9885137344</v>
       </c>
     </row>
     <row r="15">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>102.5696841205324</v>
+        <v>134.3825174141594</v>
       </c>
       <c r="AB15" t="n">
-        <v>140.3403668687542</v>
+        <v>183.868088864225</v>
       </c>
       <c r="AC15" t="n">
-        <v>126.9464792237801</v>
+        <v>166.3199765235585</v>
       </c>
       <c r="AD15" t="n">
-        <v>102569.6841205324</v>
+        <v>134382.5174141594</v>
       </c>
       <c r="AE15" t="n">
-        <v>140340.3668687542</v>
+        <v>183868.088864225</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.005831244159923e-06</v>
+        <v>6.670863310791591e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH15" t="n">
-        <v>126946.4792237801</v>
+        <v>166319.9765235585</v>
       </c>
     </row>
     <row r="16">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>102.6211494494854</v>
+        <v>134.4339827431125</v>
       </c>
       <c r="AB16" t="n">
-        <v>140.4107840023178</v>
+        <v>183.9385059977886</v>
       </c>
       <c r="AC16" t="n">
-        <v>127.0101758449475</v>
+        <v>166.3836731447259</v>
       </c>
       <c r="AD16" t="n">
-        <v>102621.1494494854</v>
+        <v>134433.9827431125</v>
       </c>
       <c r="AE16" t="n">
-        <v>140410.7840023178</v>
+        <v>183938.5059977886</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.004444396906598e-06</v>
+        <v>6.668553810491657e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH16" t="n">
-        <v>127010.1758449475</v>
+        <v>166383.6731447259</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.0562998526927</v>
+        <v>107.2871205866742</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8507583450668</v>
+        <v>146.7949715603349</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.221492987259</v>
+        <v>132.785065502693</v>
       </c>
       <c r="AD2" t="n">
-        <v>89056.2998526927</v>
+        <v>107287.1205866742</v>
       </c>
       <c r="AE2" t="n">
-        <v>121850.7583450668</v>
+        <v>146794.9715603349</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.483619155837322e-06</v>
+        <v>8.483972271592907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.216049382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>110221.492987259</v>
+        <v>132785.0655026929</v>
       </c>
     </row>
   </sheetData>
@@ -20172,28 +20172,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.3555199860869</v>
+        <v>127.6748201224117</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.9426057010942</v>
+        <v>174.690321506941</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.9684342096636</v>
+        <v>158.0181224017734</v>
       </c>
       <c r="AD2" t="n">
-        <v>99355.5199860869</v>
+        <v>127674.8201224117</v>
       </c>
       <c r="AE2" t="n">
-        <v>135942.6057010942</v>
+        <v>174690.3215069411</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.201238849800714e-06</v>
+        <v>7.653744781213659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.324074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>122968.4342096636</v>
+        <v>158018.1224017734</v>
       </c>
     </row>
     <row r="3">
@@ -20278,28 +20278,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.94244204510771</v>
+        <v>112.9357931116034</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.5361936541057</v>
+        <v>154.5237345107832</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.2688797334727</v>
+        <v>139.7762061645398</v>
       </c>
       <c r="AD3" t="n">
-        <v>93942.44204510772</v>
+        <v>112935.7931116034</v>
       </c>
       <c r="AE3" t="n">
-        <v>128536.1936541057</v>
+        <v>154523.7345107832</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.43833025661176e-06</v>
+        <v>8.085673834149252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.042438271604939</v>
       </c>
       <c r="AH3" t="n">
-        <v>116268.8797334727</v>
+        <v>139776.2061645398</v>
       </c>
     </row>
     <row r="4">
@@ -20384,28 +20384,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.67828669909922</v>
+        <v>112.6716377655949</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.1747646559856</v>
+        <v>154.1623055126632</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.9419450116643</v>
+        <v>139.4492714427315</v>
       </c>
       <c r="AD4" t="n">
-        <v>93678.28669909922</v>
+        <v>112671.6377655949</v>
       </c>
       <c r="AE4" t="n">
-        <v>128174.7646559856</v>
+        <v>154162.3055126632</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.452075526527175e-06</v>
+        <v>8.110714730809168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.027006172839506</v>
       </c>
       <c r="AH4" t="n">
-        <v>115941.9450116643</v>
+        <v>139449.2714427315</v>
       </c>
     </row>
   </sheetData>
@@ -20681,28 +20681,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.4801133158084</v>
+        <v>374.0784428223224</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.0761002208016</v>
+        <v>511.830628645664</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.7937496032548</v>
+        <v>462.9822318065202</v>
       </c>
       <c r="AD2" t="n">
-        <v>308480.1133158084</v>
+        <v>374078.4428223224</v>
       </c>
       <c r="AE2" t="n">
-        <v>422076.1002208016</v>
+        <v>511830.628645664</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.926574498123525e-06</v>
+        <v>3.141355202326702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.957561728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>381793.7496032548</v>
+        <v>462982.2318065202</v>
       </c>
     </row>
     <row r="3">
@@ -20787,28 +20787,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.6272065491708</v>
+        <v>287.3879626802581</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.3414920742115</v>
+        <v>393.2168892012286</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.5278479184704</v>
+        <v>355.6888211792327</v>
       </c>
       <c r="AD3" t="n">
-        <v>243627.2065491708</v>
+        <v>287387.9626802581</v>
       </c>
       <c r="AE3" t="n">
-        <v>333341.4920742115</v>
+        <v>393216.8892012286</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319009206469262e-06</v>
+        <v>3.781235369865598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.271604938271606</v>
       </c>
       <c r="AH3" t="n">
-        <v>301527.8479184704</v>
+        <v>355688.8211792327</v>
       </c>
     </row>
     <row r="4">
@@ -20893,28 +20893,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.0627456782906</v>
+        <v>250.7381609548027</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.3123836005323</v>
+        <v>343.0710136051597</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.2734473412085</v>
+        <v>310.3287975699773</v>
       </c>
       <c r="AD4" t="n">
-        <v>207062.7456782906</v>
+        <v>250738.1609548027</v>
       </c>
       <c r="AE4" t="n">
-        <v>283312.3836005323</v>
+        <v>343071.0136051598</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.602260255936596e-06</v>
+        <v>4.243087303790479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>256273.4473412085</v>
+        <v>310328.7975699773</v>
       </c>
     </row>
     <row r="5">
@@ -20999,28 +20999,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.7116933688021</v>
+        <v>224.4723599913348</v>
       </c>
       <c r="AB5" t="n">
-        <v>247.2577113043274</v>
+        <v>307.132985961604</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.6597823658915</v>
+        <v>277.8206448453726</v>
       </c>
       <c r="AD5" t="n">
-        <v>180711.6933688021</v>
+        <v>224472.3599913348</v>
       </c>
       <c r="AE5" t="n">
-        <v>247257.7113043274</v>
+        <v>307132.985961604</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.822914663087031e-06</v>
+        <v>4.602872959882917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.793981481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>223659.7823658915</v>
+        <v>277820.6448453725</v>
       </c>
     </row>
     <row r="6">
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>171.1129141027778</v>
+        <v>203.9121683645854</v>
       </c>
       <c r="AB6" t="n">
-        <v>234.1242380443051</v>
+        <v>279.0016247262616</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.7797493608561</v>
+        <v>252.3741012437088</v>
       </c>
       <c r="AD6" t="n">
-        <v>171112.9141027778</v>
+        <v>203912.1683645854</v>
       </c>
       <c r="AE6" t="n">
-        <v>234124.2380443051</v>
+        <v>279001.6247262616</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.990071066160434e-06</v>
+        <v>4.875428024277414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.415895061728396</v>
       </c>
       <c r="AH6" t="n">
-        <v>211779.7493608561</v>
+        <v>252374.1012437088</v>
       </c>
     </row>
     <row r="7">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.8986299319399</v>
+        <v>197.6978841937475</v>
       </c>
       <c r="AB7" t="n">
-        <v>225.6215802869002</v>
+        <v>270.4989669688567</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.0885733262601</v>
+        <v>244.6829252091128</v>
       </c>
       <c r="AD7" t="n">
-        <v>164898.6299319399</v>
+        <v>197697.8841937475</v>
       </c>
       <c r="AE7" t="n">
-        <v>225621.5802869002</v>
+        <v>270498.9669688568</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.109795223983383e-06</v>
+        <v>5.070642954396971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.168981481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>204088.5733262601</v>
+        <v>244682.9252091128</v>
       </c>
     </row>
     <row r="8">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>148.1391825564863</v>
+        <v>191.8145083244473</v>
       </c>
       <c r="AB8" t="n">
-        <v>202.6905650131803</v>
+        <v>262.4490725482594</v>
       </c>
       <c r="AC8" t="n">
-        <v>183.3460619663747</v>
+        <v>237.4013014139169</v>
       </c>
       <c r="AD8" t="n">
-        <v>148139.1825564863</v>
+        <v>191814.5083244473</v>
       </c>
       <c r="AE8" t="n">
-        <v>202690.5650131803</v>
+        <v>262449.0725482594</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.229419943137044e-06</v>
+        <v>5.265695745870251e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.941358024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>183346.0619663747</v>
+        <v>237401.301413917</v>
       </c>
     </row>
     <row r="9">
@@ -21423,28 +21423,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.2977615130479</v>
+        <v>176.182267120876</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.0663191531291</v>
+        <v>241.0603504877348</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.3540248340172</v>
+        <v>218.0538889675821</v>
       </c>
       <c r="AD9" t="n">
-        <v>143297.7615130479</v>
+        <v>176182.2671208761</v>
       </c>
       <c r="AE9" t="n">
-        <v>196066.3191531291</v>
+        <v>241060.3504877348</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.337360618649346e-06</v>
+        <v>5.441697246405781e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.748456790123457</v>
       </c>
       <c r="AH9" t="n">
-        <v>177354.0248340172</v>
+        <v>218053.8889675821</v>
       </c>
     </row>
     <row r="10">
@@ -21529,28 +21529,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>140.3036699535841</v>
+        <v>173.1881755614124</v>
       </c>
       <c r="AB10" t="n">
-        <v>191.9696709914757</v>
+        <v>236.9637023260815</v>
       </c>
       <c r="AC10" t="n">
-        <v>173.6483550232289</v>
+        <v>214.3482191567938</v>
       </c>
       <c r="AD10" t="n">
-        <v>140303.6699535841</v>
+        <v>173188.1755614124</v>
       </c>
       <c r="AE10" t="n">
-        <v>191969.6709914757</v>
+        <v>236963.7023260815</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.410448040576146e-06</v>
+        <v>5.560869151420626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH10" t="n">
-        <v>173648.3550232289</v>
+        <v>214348.2191567938</v>
       </c>
     </row>
     <row r="11">
@@ -21635,28 +21635,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.4996683817168</v>
+        <v>170.384173989545</v>
       </c>
       <c r="AB11" t="n">
-        <v>188.13311233703</v>
+        <v>233.1271436716357</v>
       </c>
       <c r="AC11" t="n">
-        <v>170.1779521421184</v>
+        <v>210.8778162756833</v>
       </c>
       <c r="AD11" t="n">
-        <v>137499.6683817168</v>
+        <v>170384.173989545</v>
       </c>
       <c r="AE11" t="n">
-        <v>188133.11233703</v>
+        <v>233127.1436716357</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.471304506180502e-06</v>
+        <v>5.66009800294319e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.524691358024691</v>
       </c>
       <c r="AH11" t="n">
-        <v>170177.9521421184</v>
+        <v>210877.8162756833</v>
       </c>
     </row>
     <row r="12">
@@ -21741,28 +21741,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>134.875356776031</v>
+        <v>167.5892701832671</v>
       </c>
       <c r="AB12" t="n">
-        <v>184.5424134216755</v>
+        <v>229.3030329814344</v>
       </c>
       <c r="AC12" t="n">
-        <v>166.9299444916666</v>
+        <v>207.4186733425805</v>
       </c>
       <c r="AD12" t="n">
-        <v>134875.356776031</v>
+        <v>167589.2701832671</v>
       </c>
       <c r="AE12" t="n">
-        <v>184542.4134216755</v>
+        <v>229303.0329814344</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.534597219182418e-06</v>
+        <v>5.763299251299584e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.428240740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>166929.9444916666</v>
+        <v>207418.6733425805</v>
       </c>
     </row>
     <row r="13">
@@ -21847,28 +21847,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>130.9235506583734</v>
+        <v>163.6374640656094</v>
       </c>
       <c r="AB13" t="n">
-        <v>179.1353779501176</v>
+        <v>223.8959975098765</v>
       </c>
       <c r="AC13" t="n">
-        <v>162.0389488966905</v>
+        <v>202.5276777476044</v>
       </c>
       <c r="AD13" t="n">
-        <v>130923.5506583734</v>
+        <v>163637.4640656094</v>
       </c>
       <c r="AE13" t="n">
-        <v>179135.3779501176</v>
+        <v>223895.9975098765</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.62598135625824e-06</v>
+        <v>5.912304667229711e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.289351851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>162038.9488966905</v>
+        <v>202527.6777476044</v>
       </c>
     </row>
     <row r="14">
@@ -21953,28 +21953,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>131.912226032168</v>
+        <v>164.626139439404</v>
       </c>
       <c r="AB14" t="n">
-        <v>180.4881272138218</v>
+        <v>225.2487467735807</v>
       </c>
       <c r="AC14" t="n">
-        <v>163.2625936692627</v>
+        <v>203.7513225201766</v>
       </c>
       <c r="AD14" t="n">
-        <v>131912.226032168</v>
+        <v>164626.139439404</v>
       </c>
       <c r="AE14" t="n">
-        <v>180488.1272138218</v>
+        <v>225248.7467735807</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.608579589132812e-06</v>
+        <v>5.883930404130938e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.316358024691358</v>
       </c>
       <c r="AH14" t="n">
-        <v>163262.5936692627</v>
+        <v>203751.3225201766</v>
       </c>
     </row>
     <row r="15">
@@ -22059,28 +22059,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>129.510105779004</v>
+        <v>151.4331990261072</v>
       </c>
       <c r="AB15" t="n">
-        <v>177.2014403093782</v>
+        <v>207.1975836686638</v>
       </c>
       <c r="AC15" t="n">
-        <v>160.2895835500842</v>
+        <v>187.4229370870206</v>
       </c>
       <c r="AD15" t="n">
-        <v>129510.105779004</v>
+        <v>151433.1990261072</v>
       </c>
       <c r="AE15" t="n">
-        <v>177201.4403093782</v>
+        <v>207197.5836686637</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.665408788630997e-06</v>
+        <v>5.976592640479217e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.231481481481482</v>
       </c>
       <c r="AH15" t="n">
-        <v>160289.5835500841</v>
+        <v>187422.9370870206</v>
       </c>
     </row>
     <row r="16">
@@ -22165,28 +22165,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>127.4468640043077</v>
+        <v>149.369957251411</v>
       </c>
       <c r="AB16" t="n">
-        <v>174.3784218894372</v>
+        <v>204.3745652487228</v>
       </c>
       <c r="AC16" t="n">
-        <v>157.7359900460102</v>
+        <v>184.8693435829467</v>
       </c>
       <c r="AD16" t="n">
-        <v>127446.8640043077</v>
+        <v>149369.957251411</v>
       </c>
       <c r="AE16" t="n">
-        <v>174378.4218894372</v>
+        <v>204374.5652487228</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.71478008793257e-06</v>
+        <v>6.057094478356591e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.162037037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>157735.9900460102</v>
+        <v>184869.3435829467</v>
       </c>
     </row>
     <row r="17">
@@ -22271,28 +22271,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>126.1013762228936</v>
+        <v>148.0244694699968</v>
       </c>
       <c r="AB17" t="n">
-        <v>172.5374661481757</v>
+        <v>202.5336095074613</v>
       </c>
       <c r="AC17" t="n">
-        <v>156.0707325368965</v>
+        <v>183.204086073833</v>
       </c>
       <c r="AD17" t="n">
-        <v>126101.3762228936</v>
+        <v>148024.4694699968</v>
       </c>
       <c r="AE17" t="n">
-        <v>172537.4661481757</v>
+        <v>202533.6095074613</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.737750420538136e-06</v>
+        <v>6.09454850564697e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.131172839506173</v>
       </c>
       <c r="AH17" t="n">
-        <v>156070.7325368965</v>
+        <v>183204.086073833</v>
       </c>
     </row>
     <row r="18">
@@ -22377,28 +22377,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>124.2233052658113</v>
+        <v>146.1463985129145</v>
       </c>
       <c r="AB18" t="n">
-        <v>169.9678066100539</v>
+        <v>199.9639499693395</v>
       </c>
       <c r="AC18" t="n">
-        <v>153.7463176985524</v>
+        <v>180.8796712354889</v>
       </c>
       <c r="AD18" t="n">
-        <v>124223.3052658113</v>
+        <v>146146.3985129145</v>
       </c>
       <c r="AE18" t="n">
-        <v>169967.8066100539</v>
+        <v>199963.9499693395</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.787022281170421e-06</v>
+        <v>6.174888204878066e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.065586419753086</v>
       </c>
       <c r="AH18" t="n">
-        <v>153746.3176985524</v>
+        <v>180879.6712354889</v>
       </c>
     </row>
     <row r="19">
@@ -22483,28 +22483,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>122.7518883829062</v>
+        <v>144.6749816300094</v>
       </c>
       <c r="AB19" t="n">
-        <v>167.9545491165328</v>
+        <v>197.9506924758183</v>
       </c>
       <c r="AC19" t="n">
-        <v>151.9252026745877</v>
+        <v>179.0585562115241</v>
       </c>
       <c r="AD19" t="n">
-        <v>122751.8883829062</v>
+        <v>144674.9816300094</v>
       </c>
       <c r="AE19" t="n">
-        <v>167954.5491165328</v>
+        <v>197950.6924758183</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.814517073228599e-06</v>
+        <v>6.21971954057413e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.027006172839506</v>
       </c>
       <c r="AH19" t="n">
-        <v>151925.2026745877</v>
+        <v>179058.5562115241</v>
       </c>
     </row>
     <row r="20">
@@ -22589,28 +22589,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>121.6029312913833</v>
+        <v>143.5260245384865</v>
       </c>
       <c r="AB20" t="n">
-        <v>166.3824953355025</v>
+        <v>196.378638694788</v>
       </c>
       <c r="AC20" t="n">
-        <v>150.5031835000271</v>
+        <v>177.6365370369636</v>
       </c>
       <c r="AD20" t="n">
-        <v>121602.9312913833</v>
+        <v>143526.0245384865</v>
       </c>
       <c r="AE20" t="n">
-        <v>166382.4953355025</v>
+        <v>196378.638694788</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.83365901706657e-06</v>
+        <v>6.25093122998278e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.003858024691358</v>
       </c>
       <c r="AH20" t="n">
-        <v>150503.1835000271</v>
+        <v>177636.5370369636</v>
       </c>
     </row>
     <row r="21">
@@ -22695,28 +22695,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>121.4088817770254</v>
+        <v>143.3319750241285</v>
       </c>
       <c r="AB21" t="n">
-        <v>166.1169882290976</v>
+        <v>196.1131315883832</v>
       </c>
       <c r="AC21" t="n">
-        <v>150.2630160192158</v>
+        <v>177.3963695561523</v>
       </c>
       <c r="AD21" t="n">
-        <v>121408.8817770254</v>
+        <v>143331.9750241285</v>
       </c>
       <c r="AE21" t="n">
-        <v>166116.9882290976</v>
+        <v>196113.1315883832</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.829532312291111e-06</v>
+        <v>6.244202476162213e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH21" t="n">
-        <v>150263.0160192158</v>
+        <v>177396.3695561523</v>
       </c>
     </row>
     <row r="22">
@@ -22801,28 +22801,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>121.4498707489695</v>
+        <v>143.3729639960727</v>
       </c>
       <c r="AB22" t="n">
-        <v>166.1730711488174</v>
+        <v>196.1692145081029</v>
       </c>
       <c r="AC22" t="n">
-        <v>150.3137464637904</v>
+        <v>177.4471000007269</v>
       </c>
       <c r="AD22" t="n">
-        <v>121449.8707489695</v>
+        <v>143372.9639960726</v>
       </c>
       <c r="AE22" t="n">
-        <v>166173.0711488174</v>
+        <v>196169.2145081029</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.829233996283247e-06</v>
+        <v>6.243716060223377e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH22" t="n">
-        <v>150313.7464637904</v>
+        <v>177447.1000007269</v>
       </c>
     </row>
   </sheetData>
@@ -23098,28 +23098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.18972219506614</v>
+        <v>112.5976720962677</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.9285803294233</v>
+        <v>154.0611024207547</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.6736421366158</v>
+        <v>139.3577270318753</v>
       </c>
       <c r="AD2" t="n">
-        <v>86189.72219506613</v>
+        <v>112597.6720962678</v>
       </c>
       <c r="AE2" t="n">
-        <v>117928.5803294233</v>
+        <v>154061.1024207547</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.413200892133941e-06</v>
+        <v>8.648451813191158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.505401234567902</v>
       </c>
       <c r="AH2" t="n">
-        <v>106673.6421366158</v>
+        <v>139357.7270318753</v>
       </c>
     </row>
   </sheetData>
@@ -23395,28 +23395,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.9092162351325</v>
+        <v>195.5267013406247</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.9536237651061</v>
+        <v>267.5282588033883</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.7250673918042</v>
+        <v>241.9957372615406</v>
       </c>
       <c r="AD2" t="n">
-        <v>154909.2162351325</v>
+        <v>195526.7013406247</v>
       </c>
       <c r="AE2" t="n">
-        <v>211953.6237651061</v>
+        <v>267528.2588033883</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.080110995001733e-06</v>
+        <v>5.299273083265661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.743827160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>191725.0673918042</v>
+        <v>241995.7372615406</v>
       </c>
     </row>
     <row r="3">
@@ -23501,28 +23501,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.6500941742296</v>
+        <v>170.0919622982568</v>
       </c>
       <c r="AB3" t="n">
-        <v>191.0754197764348</v>
+        <v>232.7273267441454</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.8394498890617</v>
+        <v>210.5161573146059</v>
       </c>
       <c r="AD3" t="n">
-        <v>139650.0941742296</v>
+        <v>170091.9622982568</v>
       </c>
       <c r="AE3" t="n">
-        <v>191075.4197764348</v>
+        <v>232727.3267441454</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.436703284754673e-06</v>
+        <v>5.91278341644986e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.045524691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>172839.4498890617</v>
+        <v>210516.1573146059</v>
       </c>
     </row>
     <row r="4">
@@ -23607,28 +23607,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.1355625650059</v>
+        <v>151.6626820350537</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.7430208252202</v>
+        <v>207.5115724455801</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.9247395394978</v>
+        <v>187.7069592157542</v>
       </c>
       <c r="AD4" t="n">
-        <v>121135.5625650059</v>
+        <v>151662.6820350537</v>
       </c>
       <c r="AE4" t="n">
-        <v>165743.0208252202</v>
+        <v>207511.5724455801</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.675005787313411e-06</v>
+        <v>6.322778393752181e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.652006172839506</v>
       </c>
       <c r="AH4" t="n">
-        <v>149924.7395394978</v>
+        <v>187706.9592157542</v>
       </c>
     </row>
     <row r="5">
@@ -23713,28 +23713,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.192100550818</v>
+        <v>145.5486278202736</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.6109138903739</v>
+        <v>199.1460537358869</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.5687494770269</v>
+        <v>180.1398338706323</v>
       </c>
       <c r="AD5" t="n">
-        <v>115192.100550818</v>
+        <v>145548.6278202736</v>
       </c>
       <c r="AE5" t="n">
-        <v>157610.9138903739</v>
+        <v>199146.0537358869</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.861297395730317e-06</v>
+        <v>6.643289605109168e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.378086419753086</v>
       </c>
       <c r="AH5" t="n">
-        <v>142568.7494770269</v>
+        <v>180139.8338706323</v>
       </c>
     </row>
     <row r="6">
@@ -23819,28 +23819,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110.8799340823556</v>
+        <v>131.2314365709385</v>
       </c>
       <c r="AB6" t="n">
-        <v>151.7108174888685</v>
+        <v>179.5566410386567</v>
       </c>
       <c r="AC6" t="n">
-        <v>137.2317499952419</v>
+        <v>162.4200072273061</v>
       </c>
       <c r="AD6" t="n">
-        <v>110879.9340823556</v>
+        <v>131231.4365709385</v>
       </c>
       <c r="AE6" t="n">
-        <v>151710.8174888685</v>
+        <v>179556.6410386568</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.007800131713672e-06</v>
+        <v>6.895344809184996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.181327160493827</v>
       </c>
       <c r="AH6" t="n">
-        <v>137231.7499952419</v>
+        <v>162420.0072273061</v>
       </c>
     </row>
     <row r="7">
@@ -23925,28 +23925,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.0790166411811</v>
+        <v>127.4305191297641</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.5102345612132</v>
+        <v>174.3560581110016</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.5275034031365</v>
+        <v>157.7157606352007</v>
       </c>
       <c r="AD7" t="n">
-        <v>107079.0166411811</v>
+        <v>127430.5191297641</v>
       </c>
       <c r="AE7" t="n">
-        <v>146510.2345612132</v>
+        <v>174356.0581110016</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.131043337397573e-06</v>
+        <v>7.10738242849024e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.027006172839506</v>
       </c>
       <c r="AH7" t="n">
-        <v>132527.5034031365</v>
+        <v>157715.7606352007</v>
       </c>
     </row>
     <row r="8">
@@ -24031,28 +24031,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>92.83279543577873</v>
+        <v>123.274574051255</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.0179262090691</v>
+        <v>168.6697107072314</v>
       </c>
       <c r="AC8" t="n">
-        <v>114.8955136024882</v>
+        <v>152.5721102468058</v>
       </c>
       <c r="AD8" t="n">
-        <v>92832.79543577874</v>
+        <v>123274.574051255</v>
       </c>
       <c r="AE8" t="n">
-        <v>127017.9262090691</v>
+        <v>168669.7107072314</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.275769303705274e-06</v>
+        <v>7.356380733729427e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.857253086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>114895.5136024882</v>
+        <v>152572.1102468058</v>
       </c>
     </row>
     <row r="9">
@@ -24137,28 +24137,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.26074222933273</v>
+        <v>122.702520844809</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.2352177748038</v>
+        <v>167.887002272966</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.1875057626507</v>
+        <v>151.8641024069683</v>
       </c>
       <c r="AD9" t="n">
-        <v>92260.74222933274</v>
+        <v>122702.520844809</v>
       </c>
       <c r="AE9" t="n">
-        <v>126235.2177748038</v>
+        <v>167887.0022729661</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.291975596807438e-06</v>
+        <v>7.384263356451521e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>114187.5057626507</v>
+        <v>151864.1024069683</v>
       </c>
     </row>
   </sheetData>
@@ -24434,28 +24434,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.95358014518419</v>
+        <v>110.8060065939477</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.2372362420373</v>
+        <v>151.6096666377782</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.1437175551131</v>
+        <v>137.1402528394136</v>
       </c>
       <c r="AD2" t="n">
-        <v>84953.58014518418</v>
+        <v>110806.0065939477</v>
       </c>
       <c r="AE2" t="n">
-        <v>116237.2362420373</v>
+        <v>151609.6666377782</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.305815389750451e-06</v>
+        <v>8.631697500813615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.771604938271605</v>
       </c>
       <c r="AH2" t="n">
-        <v>105143.717555113</v>
+        <v>137140.2528394136</v>
       </c>
     </row>
   </sheetData>
@@ -24731,28 +24731,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.4542524144323</v>
+        <v>284.3462459505222</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.3683603630931</v>
+        <v>389.0550781805326</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.8384677250436</v>
+        <v>351.9242075612135</v>
       </c>
       <c r="AD2" t="n">
-        <v>241454.2524144324</v>
+        <v>284346.2459505223</v>
       </c>
       <c r="AE2" t="n">
-        <v>330368.3603630931</v>
+        <v>389055.0781805326</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.29578966362519e-06</v>
+        <v>3.805703475402336e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.57253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>298838.4677250437</v>
+        <v>351924.2075612135</v>
       </c>
     </row>
     <row r="3">
@@ -24837,28 +24837,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.0557014197526</v>
+        <v>239.6917619006751</v>
       </c>
       <c r="AB3" t="n">
-        <v>269.6203041663729</v>
+        <v>327.956843086578</v>
       </c>
       <c r="AC3" t="n">
-        <v>243.8881207512867</v>
+        <v>296.6571022728126</v>
       </c>
       <c r="AD3" t="n">
-        <v>197055.7014197526</v>
+        <v>239691.7619006751</v>
       </c>
       <c r="AE3" t="n">
-        <v>269620.3041663729</v>
+        <v>327956.843086578</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.67551366167047e-06</v>
+        <v>4.435167472889226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.357253086419754</v>
       </c>
       <c r="AH3" t="n">
-        <v>243888.1207512867</v>
+        <v>296657.1022728126</v>
       </c>
     </row>
     <row r="4">
@@ -24943,28 +24943,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>169.1134673106077</v>
+        <v>211.8347791375508</v>
       </c>
       <c r="AB4" t="n">
-        <v>231.3885067338924</v>
+        <v>289.8416903067467</v>
       </c>
       <c r="AC4" t="n">
-        <v>209.3051124070853</v>
+        <v>262.1796061793235</v>
       </c>
       <c r="AD4" t="n">
-        <v>169113.4673106077</v>
+        <v>211834.7791375508</v>
       </c>
       <c r="AE4" t="n">
-        <v>231388.5067338924</v>
+        <v>289841.6903067468</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.947400941302569e-06</v>
+        <v>4.885871812841553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.67824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>209305.1124070853</v>
+        <v>262179.6061793235</v>
       </c>
     </row>
     <row r="5">
@@ -25049,28 +25049,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.6827407461549</v>
+        <v>190.7024789112704</v>
       </c>
       <c r="AB5" t="n">
-        <v>217.1167264772364</v>
+        <v>260.9275448458762</v>
       </c>
       <c r="AC5" t="n">
-        <v>196.3954108275507</v>
+        <v>236.0249861799711</v>
       </c>
       <c r="AD5" t="n">
-        <v>158682.7407461549</v>
+        <v>190702.4789112704</v>
       </c>
       <c r="AE5" t="n">
-        <v>217116.7264772364</v>
+        <v>260927.5448458762</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.153790422239056e-06</v>
+        <v>5.228001223619625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH5" t="n">
-        <v>196395.4108275507</v>
+        <v>236024.9861799711</v>
       </c>
     </row>
     <row r="6">
@@ -25155,28 +25155,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.1331554374665</v>
+        <v>183.7691264098379</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.1046096248397</v>
+        <v>251.4410260754965</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.6749767063214</v>
+        <v>227.4438474466208</v>
       </c>
       <c r="AD6" t="n">
-        <v>141133.1554374665</v>
+        <v>183769.1264098379</v>
       </c>
       <c r="AE6" t="n">
-        <v>193104.6096248397</v>
+        <v>251441.0260754965</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.304935264556113e-06</v>
+        <v>5.478552247874548e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.952932098765433</v>
       </c>
       <c r="AH6" t="n">
-        <v>174674.9767063214</v>
+        <v>227443.8474466208</v>
       </c>
     </row>
     <row r="7">
@@ -25261,28 +25261,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.4245763385614</v>
+        <v>167.5295658496975</v>
       </c>
       <c r="AB7" t="n">
-        <v>185.2938798569863</v>
+        <v>229.2213428782752</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.6096920250813</v>
+        <v>207.344779628214</v>
       </c>
       <c r="AD7" t="n">
-        <v>135424.5763385614</v>
+        <v>167529.5658496975</v>
       </c>
       <c r="AE7" t="n">
-        <v>185293.8798569863</v>
+        <v>229221.3428782752</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.443633484691137e-06</v>
+        <v>5.708470653189816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.713734567901235</v>
       </c>
       <c r="AH7" t="n">
-        <v>167609.6920250813</v>
+        <v>207344.779628214</v>
       </c>
     </row>
     <row r="8">
@@ -25367,28 +25367,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.2795801204279</v>
+        <v>163.3845696315639</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.6225131670116</v>
+        <v>223.5499761883005</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.4795926121828</v>
+        <v>202.2146802153156</v>
       </c>
       <c r="AD8" t="n">
-        <v>131279.5801204279</v>
+        <v>163384.5696315639</v>
       </c>
       <c r="AE8" t="n">
-        <v>179622.5131670116</v>
+        <v>223549.9761883005</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.551317170864375e-06</v>
+        <v>5.886976630983318e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.540123456790123</v>
       </c>
       <c r="AH8" t="n">
-        <v>162479.5926121828</v>
+        <v>202214.6802153155</v>
       </c>
     </row>
     <row r="9">
@@ -25473,28 +25473,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>127.7276415115328</v>
+        <v>159.6620388220766</v>
       </c>
       <c r="AB9" t="n">
-        <v>174.7625940618517</v>
+        <v>218.4566453082938</v>
       </c>
       <c r="AC9" t="n">
-        <v>158.0834973654786</v>
+        <v>197.6074496859603</v>
       </c>
       <c r="AD9" t="n">
-        <v>127727.6415115328</v>
+        <v>159662.0388220766</v>
       </c>
       <c r="AE9" t="n">
-        <v>174762.5940618517</v>
+        <v>218456.6453082938</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.648696686214784e-06</v>
+        <v>6.048401506212022e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.393518518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>158083.4973654786</v>
+        <v>197607.4496859603</v>
       </c>
     </row>
     <row r="10">
@@ -25579,28 +25579,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>124.6371794303575</v>
+        <v>146.0405952796659</v>
       </c>
       <c r="AB10" t="n">
-        <v>170.5340875008252</v>
+        <v>199.8191853178996</v>
       </c>
       <c r="AC10" t="n">
-        <v>154.2585535358889</v>
+        <v>180.748722719204</v>
       </c>
       <c r="AD10" t="n">
-        <v>124637.1794303575</v>
+        <v>146040.5952796659</v>
       </c>
       <c r="AE10" t="n">
-        <v>170534.0875008252</v>
+        <v>199819.1853178996</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.731028031304128e-06</v>
+        <v>6.184881206903027e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.27391975308642</v>
       </c>
       <c r="AH10" t="n">
-        <v>154258.5535358889</v>
+        <v>180748.7227192039</v>
       </c>
     </row>
     <row r="11">
@@ -25685,28 +25685,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.0901989121614</v>
+        <v>142.4936147614698</v>
       </c>
       <c r="AB11" t="n">
-        <v>165.6809522740952</v>
+        <v>194.9660500911696</v>
       </c>
       <c r="AC11" t="n">
-        <v>149.8685947237784</v>
+        <v>176.3587639070934</v>
       </c>
       <c r="AD11" t="n">
-        <v>121090.1989121614</v>
+        <v>142493.6147614698</v>
       </c>
       <c r="AE11" t="n">
-        <v>165680.9522740952</v>
+        <v>194966.0500911696</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.824530729909313e-06</v>
+        <v>6.33987952869151e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH11" t="n">
-        <v>149868.5947237784</v>
+        <v>176358.7639070934</v>
       </c>
     </row>
     <row r="12">
@@ -25791,28 +25791,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.204908054951</v>
+        <v>143.6083239042595</v>
       </c>
       <c r="AB12" t="n">
-        <v>167.2061465007559</v>
+        <v>196.4912443178303</v>
       </c>
       <c r="AC12" t="n">
-        <v>151.2482265540706</v>
+        <v>177.7383957373856</v>
       </c>
       <c r="AD12" t="n">
-        <v>122204.9080549511</v>
+        <v>143608.3239042595</v>
       </c>
       <c r="AE12" t="n">
-        <v>167206.1465007559</v>
+        <v>196491.2443178302</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.790251508162077e-06</v>
+        <v>6.283055266693768e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.192901234567902</v>
       </c>
       <c r="AH12" t="n">
-        <v>151248.2265540706</v>
+        <v>177738.3957373856</v>
       </c>
     </row>
     <row r="13">
@@ -25897,28 +25897,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>118.7070142226876</v>
+        <v>140.110430071996</v>
       </c>
       <c r="AB13" t="n">
-        <v>162.4201738432707</v>
+        <v>191.705271660345</v>
       </c>
       <c r="AC13" t="n">
-        <v>146.9190204098594</v>
+        <v>173.4091895931745</v>
       </c>
       <c r="AD13" t="n">
-        <v>118707.0142226876</v>
+        <v>140110.430071996</v>
       </c>
       <c r="AE13" t="n">
-        <v>162420.1738432707</v>
+        <v>191705.271660345</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.885488572153283e-06</v>
+        <v>6.440928625547614e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.065586419753086</v>
       </c>
       <c r="AH13" t="n">
-        <v>146919.0204098594</v>
+        <v>173409.1895931745</v>
       </c>
     </row>
     <row r="14">
@@ -26003,28 +26003,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>116.6161500245996</v>
+        <v>138.019565873908</v>
       </c>
       <c r="AB14" t="n">
-        <v>159.5593612050298</v>
+        <v>188.8444590221042</v>
       </c>
       <c r="AC14" t="n">
-        <v>144.3312397146356</v>
+        <v>170.8214088979507</v>
       </c>
       <c r="AD14" t="n">
-        <v>116616.1500245996</v>
+        <v>138019.565873908</v>
       </c>
       <c r="AE14" t="n">
-        <v>159559.3612050298</v>
+        <v>188844.4590221042</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.933642716988688e-06</v>
+        <v>6.520753184068252e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.003858024691358</v>
       </c>
       <c r="AH14" t="n">
-        <v>144331.2397146357</v>
+        <v>170821.4088979507</v>
       </c>
     </row>
     <row r="15">
@@ -26109,28 +26109,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>104.6464857093236</v>
+        <v>136.666134365888</v>
       </c>
       <c r="AB15" t="n">
-        <v>143.1819384245568</v>
+        <v>186.9926343236481</v>
       </c>
       <c r="AC15" t="n">
-        <v>129.5168551784685</v>
+        <v>169.1463197496624</v>
       </c>
       <c r="AD15" t="n">
-        <v>104646.4857093236</v>
+        <v>136666.134365888</v>
       </c>
       <c r="AE15" t="n">
-        <v>143181.9384245567</v>
+        <v>186992.6343236481</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.955781381033778e-06</v>
+        <v>6.55745218660846e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.976851851851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>129516.8551784685</v>
+        <v>169146.3197496624</v>
       </c>
     </row>
     <row r="16">
@@ -26215,28 +26215,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>103.9532696979048</v>
+        <v>135.9729183544693</v>
       </c>
       <c r="AB16" t="n">
-        <v>142.2334496952021</v>
+        <v>186.0441455942934</v>
       </c>
       <c r="AC16" t="n">
-        <v>128.6588888822308</v>
+        <v>168.2883534534246</v>
       </c>
       <c r="AD16" t="n">
-        <v>103953.2696979048</v>
+        <v>135972.9183544693</v>
       </c>
       <c r="AE16" t="n">
-        <v>142233.4496952021</v>
+        <v>186044.1455942934</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.979858453451479e-06</v>
+        <v>6.597364465868778e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH16" t="n">
-        <v>128658.8888822308</v>
+        <v>168288.3534534246</v>
       </c>
     </row>
     <row r="17">
@@ -26321,28 +26321,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>104.0643729754934</v>
+        <v>136.0840216320578</v>
       </c>
       <c r="AB17" t="n">
-        <v>142.3854661011293</v>
+        <v>186.1961620002206</v>
       </c>
       <c r="AC17" t="n">
-        <v>128.7963970557327</v>
+        <v>168.4258616269266</v>
       </c>
       <c r="AD17" t="n">
-        <v>104064.3729754934</v>
+        <v>136084.0216320578</v>
       </c>
       <c r="AE17" t="n">
-        <v>142385.4661011292</v>
+        <v>186196.1620002206</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.977205894625801e-06</v>
+        <v>6.592967350357048e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH17" t="n">
-        <v>128796.3970557327</v>
+        <v>168425.8616269266</v>
       </c>
     </row>
   </sheetData>
@@ -26618,28 +26618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.1446372202104</v>
+        <v>392.1741067530698</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.296166416349</v>
+        <v>536.5899143600625</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.2707077268076</v>
+        <v>485.3785260422121</v>
       </c>
       <c r="AD2" t="n">
-        <v>337144.6372202104</v>
+        <v>392174.1067530698</v>
       </c>
       <c r="AE2" t="n">
-        <v>461296.1664163489</v>
+        <v>536589.9143600625</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.841073504893472e-06</v>
+        <v>2.990720680169147e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.35493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>417270.7077268076</v>
+        <v>485378.526042212</v>
       </c>
     </row>
     <row r="3">
@@ -26724,28 +26724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.2149836933832</v>
+        <v>298.392101251062</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.828155862677</v>
+        <v>408.2732370621336</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.6319248471297</v>
+        <v>369.3082123320099</v>
       </c>
       <c r="AD3" t="n">
-        <v>254214.9836933832</v>
+        <v>298392.101251062</v>
       </c>
       <c r="AE3" t="n">
-        <v>347828.155862677</v>
+        <v>408273.2370621336</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.234929099655923e-06</v>
+        <v>3.630517010476199e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.530092592592592</v>
       </c>
       <c r="AH3" t="n">
-        <v>314631.9248471297</v>
+        <v>369308.2123320099</v>
       </c>
     </row>
     <row r="4">
@@ -26830,28 +26830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>215.4694511191117</v>
+        <v>259.5612278222184</v>
       </c>
       <c r="AB4" t="n">
-        <v>294.8148088623268</v>
+        <v>355.1431229395583</v>
       </c>
       <c r="AC4" t="n">
-        <v>266.6780972797762</v>
+        <v>321.2487617327097</v>
       </c>
       <c r="AD4" t="n">
-        <v>215469.4511191117</v>
+        <v>259561.2278222184</v>
       </c>
       <c r="AE4" t="n">
-        <v>294814.8088623268</v>
+        <v>355143.1229395584</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.51402340805391e-06</v>
+        <v>4.08389006572076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.584876543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>266678.0972797762</v>
+        <v>321248.7617327097</v>
       </c>
     </row>
     <row r="5">
@@ -26936,28 +26936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.5073765887121</v>
+        <v>231.5138124372439</v>
       </c>
       <c r="AB5" t="n">
-        <v>256.555864890188</v>
+        <v>316.7674118450496</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.0705332235611</v>
+        <v>286.5355746445067</v>
       </c>
       <c r="AD5" t="n">
-        <v>187507.3765887121</v>
+        <v>231513.8124372439</v>
       </c>
       <c r="AE5" t="n">
-        <v>256555.864890188</v>
+        <v>316767.4118450496</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.737565741484776e-06</v>
+        <v>4.447022052416555e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.963734567901235</v>
       </c>
       <c r="AH5" t="n">
-        <v>232070.5332235611</v>
+        <v>286535.5746445067</v>
       </c>
     </row>
     <row r="6">
@@ -27042,28 +27042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.1155498432919</v>
+        <v>210.2697232251911</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.3373090820714</v>
+        <v>287.7003117620634</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.2089764258982</v>
+        <v>260.2425977975003</v>
       </c>
       <c r="AD6" t="n">
-        <v>177115.5498432919</v>
+        <v>210269.7232251911</v>
       </c>
       <c r="AE6" t="n">
-        <v>242337.3090820714</v>
+        <v>287700.3117620634</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.901355105400294e-06</v>
+        <v>4.713088690468703e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.570216049382717</v>
       </c>
       <c r="AH6" t="n">
-        <v>219208.9764258982</v>
+        <v>260242.5977975003</v>
       </c>
     </row>
     <row r="7">
@@ -27148,28 +27148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.6829009673447</v>
+        <v>202.6664821486517</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.1676309846795</v>
+        <v>277.2972218898246</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.0098781328853</v>
+        <v>250.8323642218364</v>
       </c>
       <c r="AD7" t="n">
-        <v>169682.9009673447</v>
+        <v>202666.4821486517</v>
       </c>
       <c r="AE7" t="n">
-        <v>232167.6309846795</v>
+        <v>277297.2218898247</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.036182318665694e-06</v>
+        <v>4.932107938690266e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.280864197530865</v>
       </c>
       <c r="AH7" t="n">
-        <v>210009.8781328853</v>
+        <v>250832.3642218364</v>
       </c>
     </row>
     <row r="8">
@@ -27254,28 +27254,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>164.1138445684221</v>
+        <v>197.0974257497291</v>
       </c>
       <c r="AB8" t="n">
-        <v>224.5478023302491</v>
+        <v>269.6773932353942</v>
       </c>
       <c r="AC8" t="n">
-        <v>203.1172752307346</v>
+        <v>243.9397613196857</v>
       </c>
       <c r="AD8" t="n">
-        <v>164113.8445684222</v>
+        <v>197097.4257497291</v>
       </c>
       <c r="AE8" t="n">
-        <v>224547.802330249</v>
+        <v>269677.3932353941</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.147483962461031e-06</v>
+        <v>5.1129112183805e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.057098765432098</v>
       </c>
       <c r="AH8" t="n">
-        <v>203117.2752307346</v>
+        <v>243939.7613196857</v>
       </c>
     </row>
     <row r="9">
@@ -27360,28 +27360,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>148.0439146067277</v>
+        <v>181.1127471340552</v>
       </c>
       <c r="AB9" t="n">
-        <v>202.5602152013954</v>
+        <v>247.8064507591898</v>
       </c>
       <c r="AC9" t="n">
-        <v>183.2281525576794</v>
+        <v>224.1561508973427</v>
       </c>
       <c r="AD9" t="n">
-        <v>148043.9146067277</v>
+        <v>181112.7471340552</v>
       </c>
       <c r="AE9" t="n">
-        <v>202560.2152013954</v>
+        <v>247806.4507591898</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.253546718937404e-06</v>
+        <v>5.285204219364178e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.860339506172839</v>
       </c>
       <c r="AH9" t="n">
-        <v>183228.1525576794</v>
+        <v>224156.1508973427</v>
       </c>
     </row>
     <row r="10">
@@ -27466,28 +27466,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.5801709365315</v>
+        <v>177.6490034638591</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.8209683022493</v>
+        <v>243.0672038600437</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.9412127310115</v>
+        <v>219.8692110706749</v>
       </c>
       <c r="AD10" t="n">
-        <v>144580.1709365315</v>
+        <v>177649.0034638591</v>
       </c>
       <c r="AE10" t="n">
-        <v>197820.9683022493</v>
+        <v>243067.2038600438</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.326693447541799e-06</v>
+        <v>5.404026978663266e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH10" t="n">
-        <v>178941.2127310115</v>
+        <v>219869.2110706749</v>
       </c>
     </row>
     <row r="11">
@@ -27572,28 +27572,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>141.3417693160213</v>
+        <v>174.4106018433488</v>
       </c>
       <c r="AB11" t="n">
-        <v>193.3900443368731</v>
+        <v>238.6362798946675</v>
       </c>
       <c r="AC11" t="n">
-        <v>174.9331699300485</v>
+        <v>215.8611682697118</v>
       </c>
       <c r="AD11" t="n">
-        <v>141341.7693160213</v>
+        <v>174410.6018433488</v>
       </c>
       <c r="AE11" t="n">
-        <v>193390.0443368731</v>
+        <v>238636.2798946675</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.403349242180595e-06</v>
+        <v>5.528550018982784e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.601851851851851</v>
       </c>
       <c r="AH11" t="n">
-        <v>174933.1699300485</v>
+        <v>215861.1682697118</v>
       </c>
     </row>
     <row r="12">
@@ -27678,28 +27678,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>138.4950761969713</v>
+        <v>171.5639087242988</v>
       </c>
       <c r="AB12" t="n">
-        <v>189.4950732241539</v>
+        <v>234.7413087819484</v>
       </c>
       <c r="AC12" t="n">
-        <v>171.4099293936998</v>
+        <v>212.3379277333631</v>
       </c>
       <c r="AD12" t="n">
-        <v>138495.0761969713</v>
+        <v>171563.9087242988</v>
       </c>
       <c r="AE12" t="n">
-        <v>189495.073224154</v>
+        <v>234741.3087819483</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.466808971591436e-06</v>
+        <v>5.631636791239561e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.501543209876544</v>
       </c>
       <c r="AH12" t="n">
-        <v>171409.9293936998</v>
+        <v>212337.9277333631</v>
       </c>
     </row>
     <row r="13">
@@ -27784,28 +27784,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>135.4810973428322</v>
+        <v>168.3793376695675</v>
       </c>
       <c r="AB13" t="n">
-        <v>185.3712143885602</v>
+        <v>230.3840381715077</v>
       </c>
       <c r="AC13" t="n">
-        <v>167.6796458575016</v>
+        <v>208.3965089145138</v>
       </c>
       <c r="AD13" t="n">
-        <v>135481.0973428322</v>
+        <v>168379.3376695675</v>
       </c>
       <c r="AE13" t="n">
-        <v>185371.2143885602</v>
+        <v>230384.0381715077</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.538967230890366e-06</v>
+        <v>5.748853837575148e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.389660493827162</v>
       </c>
       <c r="AH13" t="n">
-        <v>167679.6458575015</v>
+        <v>208396.5089145138</v>
       </c>
     </row>
     <row r="14">
@@ -27890,28 +27890,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>132.87740677204</v>
+        <v>165.7756470987754</v>
       </c>
       <c r="AB14" t="n">
-        <v>181.8087300828831</v>
+        <v>226.8215538658306</v>
       </c>
       <c r="AC14" t="n">
-        <v>164.457160053979</v>
+        <v>205.1740231109913</v>
       </c>
       <c r="AD14" t="n">
-        <v>132877.40677204</v>
+        <v>165775.6470987754</v>
       </c>
       <c r="AE14" t="n">
-        <v>181808.7300828831</v>
+        <v>226821.5538658306</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.592641114177105e-06</v>
+        <v>5.836044051493263e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.308641975308642</v>
       </c>
       <c r="AH14" t="n">
-        <v>164457.160053979</v>
+        <v>205174.0231109913</v>
       </c>
     </row>
     <row r="15">
@@ -27996,28 +27996,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>133.3596570348924</v>
+        <v>166.2578973616278</v>
       </c>
       <c r="AB15" t="n">
-        <v>182.4685661678974</v>
+        <v>227.481389950845</v>
       </c>
       <c r="AC15" t="n">
-        <v>165.0540223091255</v>
+        <v>205.7708853661378</v>
       </c>
       <c r="AD15" t="n">
-        <v>133359.6570348924</v>
+        <v>166257.8973616278</v>
       </c>
       <c r="AE15" t="n">
-        <v>182468.5661678974</v>
+        <v>227481.389950845</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.592987078434018e-06</v>
+        <v>5.836606051030488e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.308641975308642</v>
       </c>
       <c r="AH15" t="n">
-        <v>165054.0223091255</v>
+        <v>205770.8853661378</v>
       </c>
     </row>
     <row r="16">
@@ -28102,28 +28102,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>131.0598273941166</v>
+        <v>153.1058052542194</v>
       </c>
       <c r="AB16" t="n">
-        <v>179.3218377920666</v>
+        <v>209.4861173001446</v>
       </c>
       <c r="AC16" t="n">
-        <v>162.207613273022</v>
+        <v>189.4930562806908</v>
       </c>
       <c r="AD16" t="n">
-        <v>131059.8273941166</v>
+        <v>153105.8052542194</v>
       </c>
       <c r="AE16" t="n">
-        <v>179321.8377920666</v>
+        <v>209486.1173001446</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.646166727068024e-06</v>
+        <v>5.922993408466852e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.231481481481482</v>
       </c>
       <c r="AH16" t="n">
-        <v>162207.613273022</v>
+        <v>189493.0562806908</v>
       </c>
     </row>
     <row r="17">
@@ -28208,28 +28208,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>129.902791997639</v>
+        <v>151.9487698577418</v>
       </c>
       <c r="AB17" t="n">
-        <v>177.7387309178076</v>
+        <v>207.9030104258856</v>
       </c>
       <c r="AC17" t="n">
-        <v>160.7755958969373</v>
+        <v>188.0610389046061</v>
       </c>
       <c r="AD17" t="n">
-        <v>129902.7919976391</v>
+        <v>151948.7698577418</v>
       </c>
       <c r="AE17" t="n">
-        <v>177738.7309178076</v>
+        <v>207903.0104258856</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.666578618225873e-06</v>
+        <v>5.956151381163152e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.200617283950617</v>
       </c>
       <c r="AH17" t="n">
-        <v>160775.5958969374</v>
+        <v>188061.0389046061</v>
       </c>
     </row>
     <row r="18">
@@ -28314,28 +28314,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>127.7715116186108</v>
+        <v>149.8174894787136</v>
       </c>
       <c r="AB18" t="n">
-        <v>174.8226190777683</v>
+        <v>204.9868985858462</v>
       </c>
       <c r="AC18" t="n">
-        <v>158.1377936781218</v>
+        <v>185.4232366857906</v>
       </c>
       <c r="AD18" t="n">
-        <v>127771.5116186108</v>
+        <v>149817.4894787135</v>
       </c>
       <c r="AE18" t="n">
-        <v>174822.6190777683</v>
+        <v>204986.8985858462</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.716891705874032e-06</v>
+        <v>6.037882171005363e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.131172839506173</v>
       </c>
       <c r="AH18" t="n">
-        <v>158137.7936781218</v>
+        <v>185423.2366857906</v>
       </c>
     </row>
     <row r="19">
@@ -28420,28 +28420,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>126.5534544816688</v>
+        <v>148.5994323417715</v>
       </c>
       <c r="AB19" t="n">
-        <v>173.1560195661168</v>
+        <v>203.3202990741948</v>
       </c>
       <c r="AC19" t="n">
-        <v>156.6302520847747</v>
+        <v>183.9156950924434</v>
       </c>
       <c r="AD19" t="n">
-        <v>126553.4544816688</v>
+        <v>148599.4323417715</v>
       </c>
       <c r="AE19" t="n">
-        <v>173156.0195661168</v>
+        <v>203320.2990741948</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.741504591580104e-06</v>
+        <v>6.077864423796541e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.096450617283951</v>
       </c>
       <c r="AH19" t="n">
-        <v>156630.2520847747</v>
+        <v>183915.6950924434</v>
       </c>
     </row>
     <row r="20">
@@ -28526,28 +28526,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>125.3786496213234</v>
+        <v>147.4246274814262</v>
       </c>
       <c r="AB20" t="n">
-        <v>171.5485997274605</v>
+        <v>201.7128792355385</v>
       </c>
       <c r="AC20" t="n">
-        <v>155.1762421394913</v>
+        <v>182.46168514716</v>
       </c>
       <c r="AD20" t="n">
-        <v>125378.6496213234</v>
+        <v>147424.6274814262</v>
       </c>
       <c r="AE20" t="n">
-        <v>171548.5997274605</v>
+        <v>201712.8792355385</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.760730319571395e-06</v>
+        <v>6.109095540936641e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.069444444444445</v>
       </c>
       <c r="AH20" t="n">
-        <v>155176.2421394913</v>
+        <v>182461.6851471601</v>
       </c>
     </row>
     <row r="21">
@@ -28632,28 +28632,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>123.8941526736278</v>
+        <v>145.9401305337306</v>
       </c>
       <c r="AB21" t="n">
-        <v>169.5174455122412</v>
+        <v>199.6817250203192</v>
       </c>
       <c r="AC21" t="n">
-        <v>153.338938431829</v>
+        <v>180.6243814394978</v>
       </c>
       <c r="AD21" t="n">
-        <v>123894.1526736278</v>
+        <v>145940.1305337306</v>
       </c>
       <c r="AE21" t="n">
-        <v>169517.4455122412</v>
+        <v>199681.7250203192</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.7865787919093e-06</v>
+        <v>6.151084934932196e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.034722222222223</v>
       </c>
       <c r="AH21" t="n">
-        <v>153338.938431829</v>
+        <v>180624.3814394978</v>
       </c>
     </row>
     <row r="22">
@@ -28738,28 +28738,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>122.8726267159368</v>
+        <v>144.9186045760395</v>
       </c>
       <c r="AB22" t="n">
-        <v>168.1197486303844</v>
+        <v>198.2840281384624</v>
       </c>
       <c r="AC22" t="n">
-        <v>152.0746357786963</v>
+        <v>179.3600787863651</v>
       </c>
       <c r="AD22" t="n">
-        <v>122872.6267159368</v>
+        <v>144918.6045760395</v>
       </c>
       <c r="AE22" t="n">
-        <v>168119.7486303844</v>
+        <v>198284.0281384624</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.811982453059745e-06</v>
+        <v>6.192351758094177e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.003858024691358</v>
       </c>
       <c r="AH22" t="n">
-        <v>152074.6357786963</v>
+        <v>179360.0787863651</v>
       </c>
     </row>
     <row r="23">
@@ -28844,28 +28844,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>123.0589474874957</v>
+        <v>145.1049253475985</v>
       </c>
       <c r="AB23" t="n">
-        <v>168.3746809299236</v>
+        <v>198.5389604380015</v>
       </c>
       <c r="AC23" t="n">
-        <v>152.3052376973672</v>
+        <v>179.590680705036</v>
       </c>
       <c r="AD23" t="n">
-        <v>123058.9474874957</v>
+        <v>145104.9253475985</v>
       </c>
       <c r="AE23" t="n">
-        <v>168374.6809299235</v>
+        <v>198538.9604380015</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.808325116629526e-06</v>
+        <v>6.186410620129223e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH23" t="n">
-        <v>152305.2376973672</v>
+        <v>179590.680705036</v>
       </c>
     </row>
     <row r="24">
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>123.1221674341582</v>
+        <v>145.1681452942609</v>
       </c>
       <c r="AB24" t="n">
-        <v>168.4611812500142</v>
+        <v>198.6254607580922</v>
       </c>
       <c r="AC24" t="n">
-        <v>152.3834825483125</v>
+        <v>179.6689255559812</v>
       </c>
       <c r="AD24" t="n">
-        <v>123122.1674341582</v>
+        <v>145168.1452942609</v>
       </c>
       <c r="AE24" t="n">
-        <v>168461.1812500142</v>
+        <v>198625.4607580922</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.806990683067148e-06</v>
+        <v>6.184242907628496e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH24" t="n">
-        <v>152383.4825483125</v>
+        <v>179668.9255559812</v>
       </c>
     </row>
   </sheetData>
@@ -29247,28 +29247,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.3927563637491</v>
+        <v>146.8355115966936</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.6219482597072</v>
+        <v>200.9068248920892</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.2924149521653</v>
+        <v>181.732559498945</v>
       </c>
       <c r="AD2" t="n">
-        <v>117392.7563637491</v>
+        <v>146835.5115966936</v>
       </c>
       <c r="AE2" t="n">
-        <v>160621.9482597072</v>
+        <v>200906.8248920892</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.662694963820747e-06</v>
+        <v>6.48690494443448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.895061728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>145292.4149521653</v>
+        <v>181732.559498945</v>
       </c>
     </row>
     <row r="3">
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.8443919313155</v>
+        <v>137.1165549636677</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.5574547991493</v>
+        <v>187.6089196566843</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.4747784113471</v>
+        <v>169.7037876754757</v>
       </c>
       <c r="AD3" t="n">
-        <v>107844.3919313155</v>
+        <v>137116.5549636677</v>
       </c>
       <c r="AE3" t="n">
-        <v>147557.4547991493</v>
+        <v>187608.9196566843</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.99547386070633e-06</v>
+        <v>7.076281098587018e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>133474.7784113471</v>
+        <v>169703.7876754757</v>
       </c>
     </row>
     <row r="4">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.0683082002367</v>
+        <v>121.6969011974174</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.6543622154616</v>
+        <v>166.5110691065979</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.3259458917839</v>
+        <v>150.6194863708636</v>
       </c>
       <c r="AD4" t="n">
-        <v>102068.3082002367</v>
+        <v>121696.9011974174</v>
       </c>
       <c r="AE4" t="n">
-        <v>139654.3622154616</v>
+        <v>166511.0691065979</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.217195847344478e-06</v>
+        <v>7.468967212396638e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.119598765432098</v>
       </c>
       <c r="AH4" t="n">
-        <v>126325.9458917839</v>
+        <v>150619.4863708636</v>
       </c>
     </row>
     <row r="5">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.54508791167643</v>
+        <v>117.9025022900493</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.1512956142896</v>
+        <v>161.3194051244739</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.5887859978048</v>
+        <v>145.9233075126457</v>
       </c>
       <c r="AD5" t="n">
-        <v>88545.08791167643</v>
+        <v>117902.5022900493</v>
       </c>
       <c r="AE5" t="n">
-        <v>121151.2956142896</v>
+        <v>161319.4051244739</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.358983727211792e-06</v>
+        <v>7.720084083459444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>109588.7859978048</v>
+        <v>145923.3075126457</v>
       </c>
     </row>
     <row r="6">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.305861770551</v>
+        <v>117.6632761489238</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.8239758540895</v>
+        <v>160.9920853642737</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.2927051761219</v>
+        <v>145.6272266909628</v>
       </c>
       <c r="AD6" t="n">
-        <v>88305.86177055101</v>
+        <v>117663.2761489238</v>
       </c>
       <c r="AE6" t="n">
-        <v>120823.9758540895</v>
+        <v>160992.0853642737</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.365588926510783e-06</v>
+        <v>7.731782382229842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH6" t="n">
-        <v>109292.7051761219</v>
+        <v>145627.2266909628</v>
       </c>
     </row>
   </sheetData>
@@ -29968,28 +29968,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.312375390399</v>
+        <v>321.6507334272198</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.7992702845901</v>
+        <v>440.0967237039858</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.4563223837606</v>
+        <v>398.0945100733078</v>
       </c>
       <c r="AD2" t="n">
-        <v>278312.375390399</v>
+        <v>321650.7334272198</v>
       </c>
       <c r="AE2" t="n">
-        <v>380799.2702845901</v>
+        <v>440096.7237039859</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.103890167765765e-06</v>
+        <v>3.457777287732693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.232253086419753</v>
       </c>
       <c r="AH2" t="n">
-        <v>344456.3223837605</v>
+        <v>398094.5100733078</v>
       </c>
     </row>
     <row r="3">
@@ -30074,28 +30074,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9613618767695</v>
+        <v>256.2996304050386</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.3831305118677</v>
+        <v>350.6804614616846</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.5739334946931</v>
+        <v>317.2120104030051</v>
       </c>
       <c r="AD3" t="n">
-        <v>212961.3618767695</v>
+        <v>256299.6304050386</v>
       </c>
       <c r="AE3" t="n">
-        <v>291383.1305118677</v>
+        <v>350680.4614616846</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.500584619383161e-06</v>
+        <v>4.109750991487805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.766203703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>263573.9334946931</v>
+        <v>317212.0104030051</v>
       </c>
     </row>
     <row r="4">
@@ -30180,28 +30180,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>181.5324867175605</v>
+        <v>224.7854143912579</v>
       </c>
       <c r="AB4" t="n">
-        <v>248.3807569749448</v>
+        <v>307.5613208025641</v>
       </c>
       <c r="AC4" t="n">
-        <v>224.6756461339101</v>
+        <v>278.2081000102831</v>
       </c>
       <c r="AD4" t="n">
-        <v>181532.4867175605</v>
+        <v>224785.4143912579</v>
       </c>
       <c r="AE4" t="n">
-        <v>248380.7569749448</v>
+        <v>307561.3208025641</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.77545158712821e-06</v>
+        <v>4.561499268455179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.998456790123457</v>
       </c>
       <c r="AH4" t="n">
-        <v>224675.6461339101</v>
+        <v>278208.1000102832</v>
       </c>
     </row>
     <row r="5">
@@ -30286,28 +30286,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>169.3383167056707</v>
+        <v>201.9273589564441</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.6961555958726</v>
+        <v>276.2859209304329</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.5833996934661</v>
+        <v>249.9175804066389</v>
       </c>
       <c r="AD5" t="n">
-        <v>169338.3167056707</v>
+        <v>201927.3589564441</v>
       </c>
       <c r="AE5" t="n">
-        <v>231696.1555958726</v>
+        <v>276285.9209304329</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.983061729066045e-06</v>
+        <v>4.902709871790977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.512345679012345</v>
       </c>
       <c r="AH5" t="n">
-        <v>209583.3996934661</v>
+        <v>249917.5804066389</v>
       </c>
     </row>
     <row r="6">
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.1216966040512</v>
+        <v>193.5401466542324</v>
       </c>
       <c r="AB6" t="n">
-        <v>220.4538134811469</v>
+        <v>264.8101670408603</v>
       </c>
       <c r="AC6" t="n">
-        <v>199.41401093144</v>
+        <v>239.5370563619617</v>
       </c>
       <c r="AD6" t="n">
-        <v>161121.6966040512</v>
+        <v>193540.1466542324</v>
       </c>
       <c r="AE6" t="n">
-        <v>220453.8134811469</v>
+        <v>264810.1670408603</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.144558658100133e-06</v>
+        <v>5.168132668954225e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.176697530864199</v>
       </c>
       <c r="AH6" t="n">
-        <v>199414.01093144</v>
+        <v>239537.0563619617</v>
       </c>
     </row>
     <row r="7">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>144.6056120682098</v>
+        <v>187.7731988873356</v>
       </c>
       <c r="AB7" t="n">
-        <v>197.855777980995</v>
+        <v>256.9195746864166</v>
       </c>
       <c r="AC7" t="n">
-        <v>178.9727002228733</v>
+        <v>232.3995310673077</v>
       </c>
       <c r="AD7" t="n">
-        <v>144605.6120682097</v>
+        <v>187773.1988873356</v>
       </c>
       <c r="AE7" t="n">
-        <v>197855.777980995</v>
+        <v>256919.5746864166</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.268500503262827e-06</v>
+        <v>5.371833082487865e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.941358024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>178972.7002228733</v>
+        <v>232399.5310673077</v>
       </c>
     </row>
     <row r="8">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>139.9386421134208</v>
+        <v>172.4423435096226</v>
       </c>
       <c r="AB8" t="n">
-        <v>191.4702237966726</v>
+        <v>235.9432220090353</v>
       </c>
       <c r="AC8" t="n">
-        <v>173.1965743677191</v>
+        <v>213.4251320489531</v>
       </c>
       <c r="AD8" t="n">
-        <v>139938.6421134208</v>
+        <v>172442.3435096226</v>
       </c>
       <c r="AE8" t="n">
-        <v>191470.2237966726</v>
+        <v>235943.2220090353</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.375527458102748e-06</v>
+        <v>5.547733602054281e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.752314814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>173196.5743677191</v>
+        <v>213425.1320489531</v>
       </c>
     </row>
     <row r="9">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.4003238133619</v>
+        <v>167.9040252095637</v>
       </c>
       <c r="AB9" t="n">
-        <v>185.2606964820623</v>
+        <v>229.733694694425</v>
       </c>
       <c r="AC9" t="n">
-        <v>167.579675624887</v>
+        <v>207.8082333061209</v>
       </c>
       <c r="AD9" t="n">
-        <v>135400.3238133619</v>
+        <v>167904.0252095637</v>
       </c>
       <c r="AE9" t="n">
-        <v>185260.6964820623</v>
+        <v>229733.694694425</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.488293393587896e-06</v>
+        <v>5.733066228502435e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.56712962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>167579.675624887</v>
+        <v>207808.2333061209</v>
       </c>
     </row>
     <row r="10">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>132.2214429653986</v>
+        <v>164.5545521610082</v>
       </c>
       <c r="AB10" t="n">
-        <v>180.9112114635559</v>
+        <v>225.1507979010717</v>
       </c>
       <c r="AC10" t="n">
-        <v>163.6452993520048</v>
+        <v>203.6627217505878</v>
       </c>
       <c r="AD10" t="n">
-        <v>132221.4429653986</v>
+        <v>164554.5521610082</v>
       </c>
       <c r="AE10" t="n">
-        <v>180911.2114635559</v>
+        <v>225150.7979010718</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.568085361330735e-06</v>
+        <v>5.864205609270436e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.443672839506173</v>
       </c>
       <c r="AH10" t="n">
-        <v>163645.2993520048</v>
+        <v>203662.7217505878</v>
       </c>
     </row>
     <row r="11">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>129.6931793427903</v>
+        <v>162.0262885383999</v>
       </c>
       <c r="AB11" t="n">
-        <v>177.451929635986</v>
+        <v>221.6915160735019</v>
       </c>
       <c r="AC11" t="n">
-        <v>160.5161665269246</v>
+        <v>200.5335889255075</v>
       </c>
       <c r="AD11" t="n">
-        <v>129693.1793427903</v>
+        <v>162026.2885383999</v>
       </c>
       <c r="AE11" t="n">
-        <v>177451.929635986</v>
+        <v>221691.5160735019</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.631063122621771e-06</v>
+        <v>5.967710571630544e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.347222222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>160516.1665269246</v>
+        <v>200533.5889255075</v>
       </c>
     </row>
     <row r="12">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.8426083566127</v>
+        <v>147.5118321292983</v>
       </c>
       <c r="AB12" t="n">
-        <v>172.1834085374978</v>
+        <v>201.8321964819546</v>
       </c>
       <c r="AC12" t="n">
-        <v>155.7504656876586</v>
+        <v>182.5696149230411</v>
       </c>
       <c r="AD12" t="n">
-        <v>125842.6083566127</v>
+        <v>147511.8321292983</v>
       </c>
       <c r="AE12" t="n">
-        <v>172183.4085374978</v>
+        <v>201832.1964819546</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.72399433552605e-06</v>
+        <v>6.120444512890942e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.216049382716049</v>
       </c>
       <c r="AH12" t="n">
-        <v>155750.4656876586</v>
+        <v>182569.6149230411</v>
       </c>
     </row>
     <row r="13">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>127.0479082368407</v>
+        <v>148.7171320095263</v>
       </c>
       <c r="AB13" t="n">
-        <v>173.8325530077028</v>
+        <v>203.4813409521597</v>
       </c>
       <c r="AC13" t="n">
-        <v>157.2422181242166</v>
+        <v>184.0613673595991</v>
       </c>
       <c r="AD13" t="n">
-        <v>127047.9082368407</v>
+        <v>148717.1320095263</v>
       </c>
       <c r="AE13" t="n">
-        <v>173832.5530077028</v>
+        <v>203481.3409521597</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.696306271009607e-06</v>
+        <v>6.074938734075547e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.25462962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>157242.2181242166</v>
+        <v>184061.3673595991</v>
       </c>
     </row>
     <row r="14">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>124.7170270969171</v>
+        <v>146.3862508696027</v>
       </c>
       <c r="AB14" t="n">
-        <v>170.6433386008424</v>
+        <v>200.2921265452993</v>
       </c>
       <c r="AC14" t="n">
-        <v>154.3573778642554</v>
+        <v>181.1765270996379</v>
       </c>
       <c r="AD14" t="n">
-        <v>124717.0270969171</v>
+        <v>146386.2508696027</v>
       </c>
       <c r="AE14" t="n">
-        <v>170643.3386008424</v>
+        <v>200292.1265452993</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.754199496816715e-06</v>
+        <v>6.170087180689554e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>154357.3778642554</v>
+        <v>181176.5270996379</v>
       </c>
     </row>
     <row r="15">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>122.6014154952787</v>
+        <v>144.2706392679643</v>
       </c>
       <c r="AB15" t="n">
-        <v>167.7486654732855</v>
+        <v>197.3974534177424</v>
       </c>
       <c r="AC15" t="n">
-        <v>151.7389682772924</v>
+        <v>178.5581175126749</v>
       </c>
       <c r="AD15" t="n">
-        <v>122601.4154952787</v>
+        <v>144270.6392679643</v>
       </c>
       <c r="AE15" t="n">
-        <v>167748.6654732855</v>
+        <v>197397.4534177424</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.804742800043094e-06</v>
+        <v>6.253155911472567e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>151738.9682772924</v>
+        <v>178558.1175126749</v>
       </c>
     </row>
     <row r="16">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>120.4955643618062</v>
+        <v>142.1647881344918</v>
       </c>
       <c r="AB16" t="n">
-        <v>164.8673470488747</v>
+        <v>194.5161349933316</v>
       </c>
       <c r="AC16" t="n">
-        <v>149.1326388393506</v>
+        <v>175.9517880747331</v>
       </c>
       <c r="AD16" t="n">
-        <v>120495.5643618062</v>
+        <v>142164.7881344918</v>
       </c>
       <c r="AE16" t="n">
-        <v>164867.3470488747</v>
+        <v>194516.1349933316</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.853926871011393e-06</v>
+        <v>6.33399072220464e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.038580246913581</v>
       </c>
       <c r="AH16" t="n">
-        <v>149132.6388393506</v>
+        <v>175951.7880747331</v>
       </c>
     </row>
     <row r="17">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>119.0432021097114</v>
+        <v>140.712425882397</v>
       </c>
       <c r="AB17" t="n">
-        <v>162.8801609418592</v>
+        <v>192.5289488863161</v>
       </c>
       <c r="AC17" t="n">
-        <v>147.3351069853548</v>
+        <v>174.1542562207373</v>
       </c>
       <c r="AD17" t="n">
-        <v>119043.2021097114</v>
+        <v>140712.425882397</v>
       </c>
       <c r="AE17" t="n">
-        <v>162880.1609418592</v>
+        <v>192528.9488863161</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.8784937355278e-06</v>
+        <v>6.374366758680845e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.007716049382717</v>
       </c>
       <c r="AH17" t="n">
-        <v>147335.1069853548</v>
+        <v>174154.2562207373</v>
       </c>
     </row>
     <row r="18">
@@ -31664,28 +31664,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>107.3791166463163</v>
+        <v>139.7974771879466</v>
       </c>
       <c r="AB18" t="n">
-        <v>146.9208446277169</v>
+        <v>191.277075717882</v>
       </c>
       <c r="AC18" t="n">
-        <v>132.898925421188</v>
+        <v>173.0218600704832</v>
       </c>
       <c r="AD18" t="n">
-        <v>107379.1166463163</v>
+        <v>139797.4771879466</v>
       </c>
       <c r="AE18" t="n">
-        <v>146920.8446277169</v>
+        <v>191277.075717882</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.900191109721593e-06</v>
+        <v>6.410026741716182e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH18" t="n">
-        <v>132898.925421188</v>
+        <v>173021.8600704832</v>
       </c>
     </row>
     <row r="19">
@@ -31770,28 +31770,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>107.4684344623857</v>
+        <v>139.8867950040159</v>
       </c>
       <c r="AB19" t="n">
-        <v>147.0430532040868</v>
+        <v>191.3992842942519</v>
       </c>
       <c r="AC19" t="n">
-        <v>133.0094705825501</v>
+        <v>173.1324052318452</v>
       </c>
       <c r="AD19" t="n">
-        <v>107468.4344623857</v>
+        <v>139886.7950040159</v>
       </c>
       <c r="AE19" t="n">
-        <v>147043.0532040868</v>
+        <v>191399.2842942519</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.894150077463461e-06</v>
+        <v>6.40009820815646e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH19" t="n">
-        <v>133009.47058255</v>
+        <v>173132.4052318452</v>
       </c>
     </row>
   </sheetData>
@@ -32067,28 +32067,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.6725439660215</v>
+        <v>170.5938677014775</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.4743806888652</v>
+        <v>233.4140558593352</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.1048959354641</v>
+        <v>211.1373459668725</v>
       </c>
       <c r="AD2" t="n">
-        <v>140672.5439660215</v>
+        <v>170593.8677014775</v>
       </c>
       <c r="AE2" t="n">
-        <v>192474.3806888651</v>
+        <v>233414.0558593352</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.351065416408401e-06</v>
+        <v>5.843965473850338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.315586419753087</v>
       </c>
       <c r="AH2" t="n">
-        <v>174104.8959354641</v>
+        <v>211137.3459668726</v>
       </c>
     </row>
     <row r="3">
@@ -32173,28 +32173,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.5617303446148</v>
+        <v>148.5683054260914</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.2213900318192</v>
+        <v>203.2777098549386</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.739208246378</v>
+        <v>183.8771705284987</v>
       </c>
       <c r="AD3" t="n">
-        <v>118561.7303446148</v>
+        <v>148568.3054260914</v>
       </c>
       <c r="AE3" t="n">
-        <v>162221.3900318192</v>
+        <v>203277.7098549386</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.694179413872409e-06</v>
+        <v>6.442326324986306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>146739.208246378</v>
+        <v>183877.1705284987</v>
       </c>
     </row>
     <row r="4">
@@ -32279,28 +32279,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.4919591326642</v>
+        <v>141.3279420135485</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.5482171633398</v>
+        <v>193.3711252116123</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.9892294200799</v>
+        <v>174.9160564195494</v>
       </c>
       <c r="AD4" t="n">
-        <v>111491.9591326642</v>
+        <v>141327.9420135485</v>
       </c>
       <c r="AE4" t="n">
-        <v>152548.2171633398</v>
+        <v>193371.1252116123</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.932428647405602e-06</v>
+        <v>6.857812184534684e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>137989.2294200798</v>
+        <v>174916.0564195495</v>
       </c>
     </row>
     <row r="5">
@@ -32385,28 +32385,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.4448659964124</v>
+        <v>126.4493388926145</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.6425616722892</v>
+        <v>173.0135640239172</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.7426399969445</v>
+        <v>156.5013922995849</v>
       </c>
       <c r="AD5" t="n">
-        <v>106444.8659964124</v>
+        <v>126449.3388926145</v>
       </c>
       <c r="AE5" t="n">
-        <v>145642.5616722892</v>
+        <v>173013.5640239172</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.110786499028517e-06</v>
+        <v>7.168852703699353e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.146604938271604</v>
       </c>
       <c r="AH5" t="n">
-        <v>131742.6399969445</v>
+        <v>156501.3922995849</v>
       </c>
     </row>
     <row r="6">
@@ -32491,28 +32491,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.3471658652964</v>
+        <v>122.2684000922013</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.353466406271</v>
+        <v>167.2930191071926</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.2944689106937</v>
+        <v>151.3268081608755</v>
       </c>
       <c r="AD6" t="n">
-        <v>92347.16586529641</v>
+        <v>122268.4000922013</v>
       </c>
       <c r="AE6" t="n">
-        <v>126353.466406271</v>
+        <v>167293.0191071926</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.248832843596438e-06</v>
+        <v>7.409593474528835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH6" t="n">
-        <v>114294.4689106937</v>
+        <v>151326.8081608755</v>
       </c>
     </row>
     <row r="7">
@@ -32597,28 +32597,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>91.09937923586389</v>
+        <v>121.0206134627688</v>
       </c>
       <c r="AB7" t="n">
-        <v>124.6461896914213</v>
+        <v>165.585742392343</v>
       </c>
       <c r="AC7" t="n">
-        <v>112.7501322893308</v>
+        <v>149.7824715395126</v>
       </c>
       <c r="AD7" t="n">
-        <v>91099.37923586389</v>
+        <v>121020.6134627688</v>
       </c>
       <c r="AE7" t="n">
-        <v>124646.1896914213</v>
+        <v>165585.7423923429</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.294135299143956e-06</v>
+        <v>7.488597001229333e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.926697530864198</v>
       </c>
       <c r="AH7" t="n">
-        <v>112750.1322893308</v>
+        <v>149782.4715395126</v>
       </c>
     </row>
     <row r="8">
@@ -32703,28 +32703,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.23881143205232</v>
+        <v>121.1600456589572</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.8369669735606</v>
+        <v>165.7765196744822</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.9227020554203</v>
+        <v>149.9550413056022</v>
       </c>
       <c r="AD8" t="n">
-        <v>91238.81143205232</v>
+        <v>121160.0456589572</v>
       </c>
       <c r="AE8" t="n">
-        <v>124836.9669735606</v>
+        <v>165776.5196744822</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.288321666833984e-06</v>
+        <v>7.478458534122488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.934413580246914</v>
       </c>
       <c r="AH8" t="n">
-        <v>112922.7020554203</v>
+        <v>149955.0413056022</v>
       </c>
     </row>
   </sheetData>
@@ -33000,28 +33000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.546733550948</v>
+        <v>212.5590990310467</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.4002501209116</v>
+        <v>290.8327367397658</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.6932788813846</v>
+        <v>263.0760685317179</v>
       </c>
       <c r="AD2" t="n">
-        <v>181546.733550948</v>
+        <v>212559.0990310467</v>
       </c>
       <c r="AE2" t="n">
-        <v>248400.2501209116</v>
+        <v>290832.7367397658</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.825524972020725e-06</v>
+        <v>4.80320518687198e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.229938271604938</v>
       </c>
       <c r="AH2" t="n">
-        <v>224693.2788813846</v>
+        <v>263076.0685317179</v>
       </c>
     </row>
     <row r="3">
@@ -33106,28 +33106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.5107011963521</v>
+        <v>182.4377258218792</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.3036255571472</v>
+        <v>249.6193450538038</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.518858486498</v>
+        <v>225.7960251048925</v>
       </c>
       <c r="AD3" t="n">
-        <v>151510.7011963521</v>
+        <v>182437.7258218792</v>
       </c>
       <c r="AE3" t="n">
-        <v>207303.6255571472</v>
+        <v>249619.3450538038</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.198210095920488e-06</v>
+        <v>5.436745197281146e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.385030864197531</v>
       </c>
       <c r="AH3" t="n">
-        <v>187518.858486498</v>
+        <v>225796.0251048925</v>
       </c>
     </row>
     <row r="4">
@@ -33212,28 +33212,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.7384104410877</v>
+        <v>161.7506864126354</v>
       </c>
       <c r="AB4" t="n">
-        <v>178.8820609370175</v>
+        <v>221.3144250863234</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.809808103788</v>
+        <v>200.1924869728947</v>
       </c>
       <c r="AD4" t="n">
-        <v>130738.4104410877</v>
+        <v>161750.6864126354</v>
       </c>
       <c r="AE4" t="n">
-        <v>178882.0609370175</v>
+        <v>221314.4250863233</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.451466577843281e-06</v>
+        <v>5.867264431627374e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.918209876543211</v>
       </c>
       <c r="AH4" t="n">
-        <v>161809.8081037879</v>
+        <v>200192.4869728947</v>
       </c>
     </row>
     <row r="5">
@@ -33318,28 +33318,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>124.00035490858</v>
+        <v>155.0126308801276</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.6627560954146</v>
+        <v>212.0951202447205</v>
       </c>
       <c r="AC5" t="n">
-        <v>153.4703807768891</v>
+        <v>191.8530596459958</v>
       </c>
       <c r="AD5" t="n">
-        <v>124000.35490858</v>
+        <v>155012.6308801276</v>
       </c>
       <c r="AE5" t="n">
-        <v>169662.7560954146</v>
+        <v>212095.1202447205</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.642044198019296e-06</v>
+        <v>6.19123375513206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.609567901234567</v>
       </c>
       <c r="AH5" t="n">
-        <v>153470.3807768891</v>
+        <v>191853.0596459958</v>
       </c>
     </row>
     <row r="6">
@@ -33424,28 +33424,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.7486679051739</v>
+        <v>149.5903516761294</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.4771662492792</v>
+        <v>204.6761186237381</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.9705735406278</v>
+        <v>185.1421171270835</v>
       </c>
       <c r="AD6" t="n">
-        <v>118748.6679051739</v>
+        <v>149590.3516761294</v>
       </c>
       <c r="AE6" t="n">
-        <v>162477.1662492791</v>
+        <v>204676.1186237381</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.803135225295854e-06</v>
+        <v>6.46507782497227e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>146970.5735406278</v>
+        <v>185142.1171270835</v>
       </c>
     </row>
     <row r="7">
@@ -33530,28 +33530,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.1248085522964</v>
+        <v>135.7997487085458</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.5188420092832</v>
+        <v>185.8072072450355</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.4854648070438</v>
+        <v>168.0740281676748</v>
       </c>
       <c r="AD7" t="n">
-        <v>115124.8085522964</v>
+        <v>135799.7487085458</v>
       </c>
       <c r="AE7" t="n">
-        <v>157518.8420092833</v>
+        <v>185807.2072450355</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.913881997909251e-06</v>
+        <v>6.653339998519994e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.219907407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>142485.4648070438</v>
+        <v>168074.0281676748</v>
       </c>
     </row>
     <row r="8">
@@ -33636,28 +33636,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.6856257567864</v>
+        <v>132.3605659130359</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.8132003824323</v>
+        <v>181.1015656181846</v>
       </c>
       <c r="AC8" t="n">
-        <v>138.2289230126485</v>
+        <v>163.8174863732795</v>
       </c>
       <c r="AD8" t="n">
-        <v>111685.6257567864</v>
+        <v>132360.5659130359</v>
       </c>
       <c r="AE8" t="n">
-        <v>152813.2003824323</v>
+        <v>181101.5656181846</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.021875982675659e-06</v>
+        <v>6.836922615172649e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.077160493827161</v>
       </c>
       <c r="AH8" t="n">
-        <v>138228.9230126485</v>
+        <v>163817.4863732795</v>
       </c>
     </row>
     <row r="9">
@@ -33742,28 +33742,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.33226656302138</v>
+        <v>128.2592016799974</v>
       </c>
       <c r="AB9" t="n">
-        <v>133.1743011080159</v>
+        <v>175.4898981351242</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.4643327216079</v>
+        <v>158.7413885587759</v>
       </c>
       <c r="AD9" t="n">
-        <v>97332.26656302137</v>
+        <v>128259.2016799974</v>
       </c>
       <c r="AE9" t="n">
-        <v>133174.3011080159</v>
+        <v>175489.8981351242</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.142098698070027e-06</v>
+        <v>7.041293263416855e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>120464.3327216079</v>
+        <v>158741.3885587759</v>
       </c>
     </row>
     <row r="10">
@@ -33848,28 +33848,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>97.82081912653733</v>
+        <v>128.7477542435134</v>
       </c>
       <c r="AB10" t="n">
-        <v>133.8427602788361</v>
+        <v>176.1583573059443</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.0689950873535</v>
+        <v>159.3460509245214</v>
       </c>
       <c r="AD10" t="n">
-        <v>97820.81912653733</v>
+        <v>128747.7542435134</v>
       </c>
       <c r="AE10" t="n">
-        <v>133842.7602788361</v>
+        <v>176158.3573059443</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.111553340614039e-06</v>
+        <v>6.989368180177354e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.969135802469136</v>
       </c>
       <c r="AH10" t="n">
-        <v>121068.9950873535</v>
+        <v>159346.0509245215</v>
       </c>
     </row>
     <row r="11">
@@ -33954,28 +33954,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>96.96548694685247</v>
+        <v>127.8924220638285</v>
       </c>
       <c r="AB11" t="n">
-        <v>132.6724570559992</v>
+        <v>174.9880540831075</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.010383961573</v>
+        <v>158.2874397987409</v>
       </c>
       <c r="AD11" t="n">
-        <v>96965.48694685247</v>
+        <v>127892.4220638285</v>
       </c>
       <c r="AE11" t="n">
-        <v>132672.4570559993</v>
+        <v>174988.0540831075</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.142628080348294e-06</v>
+        <v>7.042193178204369e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>120010.383961573</v>
+        <v>158287.4397987409</v>
       </c>
     </row>
     <row r="12">
@@ -34060,28 +34060,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>97.0208059118202</v>
+        <v>127.9477410287962</v>
       </c>
       <c r="AB12" t="n">
-        <v>132.7481469043685</v>
+        <v>175.0637439314768</v>
       </c>
       <c r="AC12" t="n">
-        <v>120.0788500770453</v>
+        <v>158.3559059142133</v>
       </c>
       <c r="AD12" t="n">
-        <v>97020.80591182021</v>
+        <v>127947.7410287962</v>
       </c>
       <c r="AE12" t="n">
-        <v>132748.1469043685</v>
+        <v>175063.7439314768</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.142363389209162e-06</v>
+        <v>7.041743220810612e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>120078.8500770453</v>
+        <v>158355.9059142132</v>
       </c>
     </row>
   </sheetData>
@@ -34357,28 +34357,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.2050663107596</v>
+        <v>134.0295053942211</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.9462130462779</v>
+        <v>183.3850822447545</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.208188502959</v>
+        <v>165.8830673779461</v>
       </c>
       <c r="AD2" t="n">
-        <v>105205.0663107596</v>
+        <v>134029.5053942211</v>
       </c>
       <c r="AE2" t="n">
-        <v>143946.2130462779</v>
+        <v>183385.0822447545</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.010578118918845e-06</v>
+        <v>7.232021411386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.50925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>130208.188502959</v>
+        <v>165883.0673779461</v>
       </c>
     </row>
     <row r="3">
@@ -34463,28 +34463,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.59310954835018</v>
+        <v>116.809491779209</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.531197988123</v>
+        <v>159.8238999233224</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.7871678643856</v>
+        <v>144.5705312289369</v>
       </c>
       <c r="AD3" t="n">
-        <v>97593.10954835018</v>
+        <v>116809.491779209</v>
       </c>
       <c r="AE3" t="n">
-        <v>133531.197988123</v>
+        <v>159823.8999233224</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.322590879412789e-06</v>
+        <v>7.794654253238273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.111882716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>120787.1678643856</v>
+        <v>144570.5312289369</v>
       </c>
     </row>
     <row r="4">
@@ -34569,28 +34569,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.46860565788887</v>
+        <v>114.2077038867788</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.9419168698415</v>
+        <v>156.2640189461204</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.7811444528253</v>
+        <v>141.3504002958736</v>
       </c>
       <c r="AD4" t="n">
-        <v>85468.60565788887</v>
+        <v>114207.7038867789</v>
       </c>
       <c r="AE4" t="n">
-        <v>116941.9168698415</v>
+        <v>156264.0189461205</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.430088667857563e-06</v>
+        <v>7.988498204074673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>105781.1444528253</v>
+        <v>141350.4002958736</v>
       </c>
     </row>
     <row r="5">
@@ -34675,28 +34675,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.51588181384945</v>
+        <v>114.2549800427394</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.0066021921036</v>
+        <v>156.3287042683825</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.8396562987171</v>
+        <v>141.4089121417654</v>
       </c>
       <c r="AD5" t="n">
-        <v>85515.88181384945</v>
+        <v>114254.9800427394</v>
       </c>
       <c r="AE5" t="n">
-        <v>117006.6021921036</v>
+        <v>156328.7042683825</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.428485078045921e-06</v>
+        <v>7.985606552170883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.988425925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>105839.6562987171</v>
+        <v>141408.9121417654</v>
       </c>
     </row>
   </sheetData>
@@ -34972,28 +34972,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.27057072113996</v>
+        <v>108.7741012286432</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.5121773171255</v>
+        <v>148.8295240756319</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.7243484644411</v>
+        <v>134.625443181443</v>
       </c>
       <c r="AD2" t="n">
-        <v>90270.57072113996</v>
+        <v>108774.1012286432</v>
       </c>
       <c r="AE2" t="n">
-        <v>123512.1773171255</v>
+        <v>148829.5240756319</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.501394348129386e-06</v>
+        <v>8.398163015595676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.111882716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>111724.3484644411</v>
+        <v>134625.4431814431</v>
       </c>
     </row>
     <row r="3">
@@ -35078,28 +35078,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.36684545647417</v>
+        <v>108.8703759639775</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.6439046573512</v>
+        <v>148.9612514158577</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.8435039321962</v>
+        <v>134.7445986491982</v>
       </c>
       <c r="AD3" t="n">
-        <v>90366.84545647417</v>
+        <v>108870.3759639775</v>
       </c>
       <c r="AE3" t="n">
-        <v>123643.9046573512</v>
+        <v>148961.2514158577</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.50026085629841e-06</v>
+        <v>8.396048282151506e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.11574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>111843.5039321962</v>
+        <v>134744.5986491982</v>
       </c>
     </row>
   </sheetData>
@@ -61620,28 +61620,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.99491816587</v>
+        <v>307.754118990536</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.5270524993277</v>
+        <v>421.0827627563548</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.3595583661772</v>
+        <v>380.8952148722569</v>
       </c>
       <c r="AD2" t="n">
-        <v>253994.91816587</v>
+        <v>307754.118990536</v>
       </c>
       <c r="AE2" t="n">
-        <v>347527.0524993277</v>
+        <v>421082.7627563548</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.197462775828195e-06</v>
+        <v>3.626781348166343e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.896604938271604</v>
       </c>
       <c r="AH2" t="n">
-        <v>314359.5583661772</v>
+        <v>380895.2148722569</v>
       </c>
     </row>
     <row r="3">
@@ -61726,28 +61726,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.9810847264263</v>
+        <v>248.0567180698132</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.4641632497932</v>
+        <v>339.402145153008</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.6970571432407</v>
+        <v>307.0100807736084</v>
       </c>
       <c r="AD3" t="n">
-        <v>204981.0847264263</v>
+        <v>248056.7180698132</v>
       </c>
       <c r="AE3" t="n">
-        <v>280464.1632497932</v>
+        <v>339402.1451530079</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.585342723000414e-06</v>
+        <v>4.26695408429006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.561728395061729</v>
       </c>
       <c r="AH3" t="n">
-        <v>253697.0571432407</v>
+        <v>307010.0807736084</v>
       </c>
     </row>
     <row r="4">
@@ -61832,28 +61832,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.205074241459</v>
+        <v>218.1953667302743</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.7233120794097</v>
+        <v>298.5445268604267</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.844455628402</v>
+        <v>270.0518562268309</v>
       </c>
       <c r="AD4" t="n">
-        <v>175205.074241459</v>
+        <v>218195.3667302743</v>
       </c>
       <c r="AE4" t="n">
-        <v>239723.3120794097</v>
+        <v>298544.5268604268</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.859974899835611e-06</v>
+        <v>4.720218124759105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.83641975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>216844.4556284019</v>
+        <v>270051.8562268309</v>
       </c>
     </row>
     <row r="5">
@@ -61938,28 +61938,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.5517637151561</v>
+        <v>195.7732373766757</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.7787385095536</v>
+        <v>267.8655802843154</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.4216097816982</v>
+        <v>242.3008652537618</v>
       </c>
       <c r="AD5" t="n">
-        <v>163551.7637151561</v>
+        <v>195773.2373766757</v>
       </c>
       <c r="AE5" t="n">
-        <v>223778.7385095537</v>
+        <v>267865.5802843154</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.073904244964431e-06</v>
+        <v>5.073295759235178e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.358024691358025</v>
       </c>
       <c r="AH5" t="n">
-        <v>202421.6097816982</v>
+        <v>242300.8652537618</v>
       </c>
     </row>
     <row r="6">
@@ -62044,28 +62044,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.3760046106917</v>
+        <v>188.5974782722113</v>
       </c>
       <c r="AB6" t="n">
-        <v>213.9605483306812</v>
+        <v>258.0473901054429</v>
       </c>
       <c r="AC6" t="n">
-        <v>193.5404538935778</v>
+        <v>233.4197093656414</v>
       </c>
       <c r="AD6" t="n">
-        <v>156376.0046106917</v>
+        <v>188597.4782722113</v>
       </c>
       <c r="AE6" t="n">
-        <v>213960.5483306812</v>
+        <v>258047.3901054429</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.224951942223789e-06</v>
+        <v>5.322590981493153e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.060956790123457</v>
       </c>
       <c r="AH6" t="n">
-        <v>193540.4538935778</v>
+        <v>233419.7093656413</v>
       </c>
     </row>
     <row r="7">
@@ -62150,28 +62150,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.7013583910904</v>
+        <v>172.0080833986306</v>
       </c>
       <c r="AB7" t="n">
-        <v>191.1455617395614</v>
+        <v>235.3490481669724</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.9028976016724</v>
+        <v>212.8876653244482</v>
       </c>
       <c r="AD7" t="n">
-        <v>139701.3583910904</v>
+        <v>172008.0833986306</v>
       </c>
       <c r="AE7" t="n">
-        <v>191145.5617395614</v>
+        <v>235349.0481669724</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.358214419175185e-06</v>
+        <v>5.542532757587912e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.82175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>172902.8976016724</v>
+        <v>212887.6653244482</v>
       </c>
     </row>
     <row r="8">
@@ -62256,28 +62256,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.4237088752571</v>
+        <v>167.7304338827973</v>
       </c>
       <c r="AB8" t="n">
-        <v>185.2926929554235</v>
+        <v>229.4961793828345</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.6086183997379</v>
+        <v>207.5933861225137</v>
       </c>
       <c r="AD8" t="n">
-        <v>135423.7088752571</v>
+        <v>167730.4338827973</v>
       </c>
       <c r="AE8" t="n">
-        <v>185292.6929554235</v>
+        <v>229496.1793828345</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.464368369446354e-06</v>
+        <v>5.717733525997994e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.64429012345679</v>
       </c>
       <c r="AH8" t="n">
-        <v>167608.6183997379</v>
+        <v>207593.3861225137</v>
       </c>
     </row>
     <row r="9">
@@ -62362,28 +62362,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.8592117257953</v>
+        <v>163.9953445327433</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.4155907010166</v>
+        <v>224.3856653535807</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.196979939434</v>
+        <v>202.9706123795588</v>
       </c>
       <c r="AD9" t="n">
-        <v>131859.2117257953</v>
+        <v>163995.3445327433</v>
       </c>
       <c r="AE9" t="n">
-        <v>180415.5907010166</v>
+        <v>224385.6653535807</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.557804113742314e-06</v>
+        <v>5.871943653419566e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.493827160493828</v>
       </c>
       <c r="AH9" t="n">
-        <v>163196.979939434</v>
+        <v>202970.6123795588</v>
       </c>
     </row>
     <row r="10">
@@ -62468,28 +62468,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.7822908973191</v>
+        <v>160.9184237042671</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.2056118793309</v>
+        <v>220.175686531895</v>
       </c>
       <c r="AC10" t="n">
-        <v>159.3887955877462</v>
+        <v>199.162428027871</v>
       </c>
       <c r="AD10" t="n">
-        <v>128782.2908973191</v>
+        <v>160918.4237042671</v>
       </c>
       <c r="AE10" t="n">
-        <v>176205.6118793309</v>
+        <v>220175.686531895</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.636950877619911e-06</v>
+        <v>6.002570670248469e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH10" t="n">
-        <v>159388.7955877463</v>
+        <v>199162.428027871</v>
       </c>
     </row>
     <row r="11">
@@ -62574,28 +62574,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>125.2434441105255</v>
+        <v>146.78135029077</v>
       </c>
       <c r="AB11" t="n">
-        <v>171.3636055827407</v>
+        <v>200.8327190038964</v>
       </c>
       <c r="AC11" t="n">
-        <v>155.0089035763026</v>
+        <v>181.665526172713</v>
       </c>
       <c r="AD11" t="n">
-        <v>125243.4441105255</v>
+        <v>146781.35029077</v>
       </c>
       <c r="AE11" t="n">
-        <v>171363.6055827407</v>
+        <v>200832.7190038964</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.73145069492575e-06</v>
+        <v>6.15853698675673e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH11" t="n">
-        <v>155008.9035763026</v>
+        <v>181665.526172713</v>
       </c>
     </row>
     <row r="12">
@@ -62680,28 +62680,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.3473290932411</v>
+        <v>143.8852352734856</v>
       </c>
       <c r="AB12" t="n">
-        <v>167.401013248517</v>
+        <v>196.8701266696727</v>
       </c>
       <c r="AC12" t="n">
-        <v>151.4244954929226</v>
+        <v>178.0811180893331</v>
       </c>
       <c r="AD12" t="n">
-        <v>122347.3290932411</v>
+        <v>143885.2352734856</v>
       </c>
       <c r="AE12" t="n">
-        <v>167401.013248517</v>
+        <v>196870.1266696727</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.804466371460716e-06</v>
+        <v>6.279045009324238e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>151424.4954929226</v>
+        <v>178081.1180893331</v>
       </c>
     </row>
     <row r="13">
@@ -62786,28 +62786,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>123.6941664637063</v>
+        <v>145.2320726439508</v>
       </c>
       <c r="AB13" t="n">
-        <v>169.2438155570578</v>
+        <v>198.7129289782135</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.0914233355262</v>
+        <v>179.7480459319366</v>
       </c>
       <c r="AD13" t="n">
-        <v>123694.1664637063</v>
+        <v>145232.0726439508</v>
       </c>
       <c r="AE13" t="n">
-        <v>169243.8155570578</v>
+        <v>198712.9289782135</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.766210413248434e-06</v>
+        <v>6.21590583025521e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.189043209876543</v>
       </c>
       <c r="AH13" t="n">
-        <v>153091.4233355262</v>
+        <v>179748.0459319366</v>
       </c>
     </row>
     <row r="14">
@@ -62892,28 +62892,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.8439799213248</v>
+        <v>142.3818861015693</v>
       </c>
       <c r="AB14" t="n">
-        <v>165.3440645884175</v>
+        <v>194.8131780095732</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.5638591259968</v>
+        <v>176.2204817224072</v>
       </c>
       <c r="AD14" t="n">
-        <v>120843.9799213248</v>
+        <v>142381.8861015693</v>
       </c>
       <c r="AE14" t="n">
-        <v>165344.0645884175</v>
+        <v>194813.1780095732</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.831574898140943e-06</v>
+        <v>6.323786017008912e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.100308641975309</v>
       </c>
       <c r="AH14" t="n">
-        <v>149563.8591259968</v>
+        <v>176220.4817224072</v>
       </c>
     </row>
     <row r="15">
@@ -62998,28 +62998,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>118.7310774946319</v>
+        <v>140.2689836748764</v>
       </c>
       <c r="AB15" t="n">
-        <v>162.4530982735415</v>
+        <v>191.9222116946972</v>
       </c>
       <c r="AC15" t="n">
-        <v>146.948802578715</v>
+        <v>173.6054251751254</v>
       </c>
       <c r="AD15" t="n">
-        <v>118731.0774946319</v>
+        <v>140268.9836748765</v>
       </c>
       <c r="AE15" t="n">
-        <v>162453.0982735415</v>
+        <v>191922.2116946972</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.88183968032185e-06</v>
+        <v>6.406745044341992e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.034722222222223</v>
       </c>
       <c r="AH15" t="n">
-        <v>146948.802578715</v>
+        <v>173605.4251751254</v>
       </c>
     </row>
     <row r="16">
@@ -63104,28 +63104,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>106.169862109094</v>
+        <v>138.3912462620626</v>
       </c>
       <c r="AB16" t="n">
-        <v>145.2662892213451</v>
+        <v>189.3530085265585</v>
       </c>
       <c r="AC16" t="n">
-        <v>131.4022784606167</v>
+        <v>171.2814231514537</v>
       </c>
       <c r="AD16" t="n">
-        <v>106169.862109094</v>
+        <v>138391.2462620626</v>
       </c>
       <c r="AE16" t="n">
-        <v>145266.2892213451</v>
+        <v>189353.0085265585</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.930178997056312e-06</v>
+        <v>6.486526205708685e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.972993827160495</v>
       </c>
       <c r="AH16" t="n">
-        <v>131402.2784606167</v>
+        <v>171281.4231514537</v>
       </c>
     </row>
     <row r="17">
@@ -63210,28 +63210,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>105.9066659727017</v>
+        <v>138.1280501256703</v>
       </c>
       <c r="AB17" t="n">
-        <v>144.9061726561393</v>
+        <v>188.9928919613526</v>
       </c>
       <c r="AC17" t="n">
-        <v>131.0765309149672</v>
+        <v>170.9556756058042</v>
       </c>
       <c r="AD17" t="n">
-        <v>105906.6659727017</v>
+        <v>138128.0501256703</v>
       </c>
       <c r="AE17" t="n">
-        <v>144906.1726561393</v>
+        <v>188992.8919613526</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.922933166560474e-06</v>
+        <v>6.474567394308856e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.984567901234568</v>
       </c>
       <c r="AH17" t="n">
-        <v>131076.5309149672</v>
+        <v>170955.6756058042</v>
       </c>
     </row>
     <row r="18">
@@ -63316,28 +63316,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>105.3670850598723</v>
+        <v>137.5884692128408</v>
       </c>
       <c r="AB18" t="n">
-        <v>144.1678942465765</v>
+        <v>188.2546135517899</v>
       </c>
       <c r="AC18" t="n">
-        <v>130.4087127606327</v>
+        <v>170.2878574514697</v>
       </c>
       <c r="AD18" t="n">
-        <v>105367.0850598722</v>
+        <v>137588.4692128408</v>
       </c>
       <c r="AE18" t="n">
-        <v>144167.8942465765</v>
+        <v>188254.6135517899</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.947457515930998e-06</v>
+        <v>6.51504337135443e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH18" t="n">
-        <v>130408.7127606327</v>
+        <v>170287.8574514697</v>
       </c>
     </row>
     <row r="19">
@@ -63422,28 +63422,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>105.4467008592921</v>
+        <v>137.6680850122606</v>
       </c>
       <c r="AB19" t="n">
-        <v>144.2768280957438</v>
+        <v>188.3635474009572</v>
       </c>
       <c r="AC19" t="n">
-        <v>130.5072501161251</v>
+        <v>170.3863948069621</v>
       </c>
       <c r="AD19" t="n">
-        <v>105446.700859292</v>
+        <v>137668.0850122606</v>
       </c>
       <c r="AE19" t="n">
-        <v>144276.8280957438</v>
+        <v>188363.5474009572</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.947052154784378e-06</v>
+        <v>6.514374346940454e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH19" t="n">
-        <v>130507.2501161251</v>
+        <v>170386.3948069621</v>
       </c>
     </row>
   </sheetData>
@@ -63719,28 +63719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.60069620587453</v>
+        <v>114.3305719447601</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.8591372187905</v>
+        <v>156.4321324436064</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.419949386016</v>
+        <v>141.5024692771084</v>
       </c>
       <c r="AD2" t="n">
-        <v>87600.69620587453</v>
+        <v>114330.5719447601</v>
       </c>
       <c r="AE2" t="n">
-        <v>119859.1372187905</v>
+        <v>156432.1324436064</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.464064380549602e-06</v>
+        <v>8.58456134740937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.33179012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>108419.949386016</v>
+        <v>141502.4692771084</v>
       </c>
     </row>
   </sheetData>
@@ -64016,28 +64016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.6848512252021</v>
+        <v>117.8058001294891</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8155024133204</v>
+        <v>161.1870929621973</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.712408849702</v>
+        <v>145.8036230374354</v>
       </c>
       <c r="AD2" t="n">
-        <v>92684.85122520209</v>
+        <v>117805.8001294891</v>
       </c>
       <c r="AE2" t="n">
-        <v>126815.5024133204</v>
+        <v>161187.0929621973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.079853725574484e-06</v>
+        <v>8.415103525629187e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.265432098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>114712.408849702</v>
+        <v>145803.6230374354</v>
       </c>
     </row>
   </sheetData>
@@ -64313,28 +64313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.6511414767192</v>
+        <v>163.2965680412603</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.8673880405906</v>
+        <v>223.4295685300911</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.414781182039</v>
+        <v>202.1057640950124</v>
       </c>
       <c r="AD2" t="n">
-        <v>133651.1414767192</v>
+        <v>163296.5680412604</v>
       </c>
       <c r="AE2" t="n">
-        <v>182867.3880405906</v>
+        <v>223429.5685300911</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.506217339137532e-06</v>
+        <v>6.160285552389399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09567901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>165414.781182039</v>
+        <v>202105.7640950124</v>
       </c>
     </row>
     <row r="3">
@@ -64419,28 +64419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3282340794094</v>
+        <v>143.0589119899712</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.0606895562086</v>
+        <v>195.7395146983584</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.2619149740512</v>
+        <v>177.0584101377368</v>
       </c>
       <c r="AD3" t="n">
-        <v>113328.2340794094</v>
+        <v>143058.9119899712</v>
       </c>
       <c r="AE3" t="n">
-        <v>155060.6895562086</v>
+        <v>195739.5146983584</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.831762614618381e-06</v>
+        <v>6.732255759372233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.578703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>140261.9149740512</v>
+        <v>177058.4101377368</v>
       </c>
     </row>
     <row r="4">
@@ -64525,28 +64525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5326853981013</v>
+        <v>126.3532268470269</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.7627200519985</v>
+        <v>172.88205928298</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.8513306295377</v>
+        <v>156.3824381865547</v>
       </c>
       <c r="AD4" t="n">
-        <v>106532.6853981013</v>
+        <v>126353.2268470269</v>
       </c>
       <c r="AE4" t="n">
-        <v>145762.7200519984</v>
+        <v>172882.05928298</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.080089902346924e-06</v>
+        <v>7.168557007952128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.239197530864198</v>
       </c>
       <c r="AH4" t="n">
-        <v>131851.3306295377</v>
+        <v>156382.4381865547</v>
       </c>
     </row>
     <row r="5">
@@ -64631,28 +64631,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.99663033563</v>
+        <v>121.8171717845555</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.5562893989024</v>
+        <v>166.675628629884</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.2372330071911</v>
+        <v>150.768340564208</v>
       </c>
       <c r="AD5" t="n">
-        <v>101996.63033563</v>
+        <v>121817.1717845555</v>
       </c>
       <c r="AE5" t="n">
-        <v>139556.2893989024</v>
+        <v>166675.628629884</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.246103036703926e-06</v>
+        <v>7.46023553616849e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.034722222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>126237.2330071911</v>
+        <v>150768.340564208</v>
       </c>
     </row>
     <row r="6">
@@ -64737,28 +64737,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.74017097525295</v>
+        <v>119.3855080312431</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.7864609852179</v>
+        <v>163.3485190051701</v>
       </c>
       <c r="AC6" t="n">
-        <v>111.0678934807013</v>
+        <v>147.7587656124481</v>
       </c>
       <c r="AD6" t="n">
-        <v>89740.17097525296</v>
+        <v>119385.5080312431</v>
       </c>
       <c r="AE6" t="n">
-        <v>122786.4609852179</v>
+        <v>163348.5190051701</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.330411341839514e-06</v>
+        <v>7.608361902516605e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.934413580246914</v>
       </c>
       <c r="AH6" t="n">
-        <v>111067.8934807013</v>
+        <v>147758.7656124481</v>
       </c>
     </row>
     <row r="7">
@@ -64843,28 +64843,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.73362294349005</v>
+        <v>119.3789599994802</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.7775016792811</v>
+        <v>163.3395596992333</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.0597892383486</v>
+        <v>147.7506613700954</v>
       </c>
       <c r="AD7" t="n">
-        <v>89733.62294349005</v>
+        <v>119378.9599994802</v>
       </c>
       <c r="AE7" t="n">
-        <v>122777.5016792812</v>
+        <v>163339.5596992333</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.326367645206861e-06</v>
+        <v>7.601257287047873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.938271604938272</v>
       </c>
       <c r="AH7" t="n">
-        <v>111059.7892383486</v>
+        <v>147750.6613700954</v>
       </c>
     </row>
   </sheetData>
@@ -65140,28 +65140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.6955560970289</v>
+        <v>203.641842332119</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.6072374732184</v>
+        <v>278.6317527226983</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.3619151600584</v>
+        <v>252.0395293050468</v>
       </c>
       <c r="AD2" t="n">
-        <v>162695.5560970289</v>
+        <v>203641.8423321189</v>
       </c>
       <c r="AE2" t="n">
-        <v>222607.2374732184</v>
+        <v>278631.7527226983</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.950926835884104e-06</v>
+        <v>5.045756031006218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>201361.9151600584</v>
+        <v>252039.5293050468</v>
       </c>
     </row>
     <row r="3">
@@ -65246,28 +65246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.5546446795884</v>
+        <v>176.2431136508141</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.1542862682465</v>
+        <v>241.1436033943554</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.1472807016578</v>
+        <v>218.1291963336409</v>
       </c>
       <c r="AD3" t="n">
-        <v>145554.6446795884</v>
+        <v>176243.1136508141</v>
       </c>
       <c r="AE3" t="n">
-        <v>199154.2862682465</v>
+        <v>241143.6033943554</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.313847653444223e-06</v>
+        <v>5.666310184268726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>180147.2807016578</v>
+        <v>218129.196333641</v>
       </c>
     </row>
     <row r="4">
@@ -65352,28 +65352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.8844301607023</v>
+        <v>156.6581504779486</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.2406309749009</v>
+        <v>214.3465927536591</v>
       </c>
       <c r="AC4" t="n">
-        <v>155.8022268959482</v>
+        <v>193.8896547786436</v>
       </c>
       <c r="AD4" t="n">
-        <v>125884.4301607023</v>
+        <v>156658.1504779486</v>
       </c>
       <c r="AE4" t="n">
-        <v>172240.6309749009</v>
+        <v>214346.5927536591</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.561684299411517e-06</v>
+        <v>6.090083229363274e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.78317901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>155802.2268959482</v>
+        <v>193889.6547786436</v>
       </c>
     </row>
     <row r="5">
@@ -65458,28 +65458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.102998861777</v>
+        <v>150.8767191790233</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.3302216129675</v>
+        <v>206.4361833917256</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.6467759011859</v>
+        <v>186.7342037838813</v>
       </c>
       <c r="AD5" t="n">
-        <v>120102.998861777</v>
+        <v>150876.7191790233</v>
       </c>
       <c r="AE5" t="n">
-        <v>164330.2216129675</v>
+        <v>206436.1833917256</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.733349742752206e-06</v>
+        <v>6.383612006667619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.516975308641975</v>
       </c>
       <c r="AH5" t="n">
-        <v>148646.7759011859</v>
+        <v>186734.2037838813</v>
       </c>
     </row>
     <row r="6">
@@ -65564,28 +65564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>114.7386640595175</v>
+        <v>135.2545671128994</v>
       </c>
       <c r="AB6" t="n">
-        <v>156.9905020787708</v>
+        <v>185.0612657341579</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.0075488979695</v>
+        <v>167.3992782676597</v>
       </c>
       <c r="AD6" t="n">
-        <v>114738.6640595175</v>
+        <v>135254.5671128994</v>
       </c>
       <c r="AE6" t="n">
-        <v>156990.5020787708</v>
+        <v>185061.2657341579</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.903146936554049e-06</v>
+        <v>6.673946285462741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>142007.5488979695</v>
+        <v>167399.2782676597</v>
       </c>
     </row>
     <row r="7">
@@ -65670,28 +65670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.9711537027471</v>
+        <v>131.487056756129</v>
       </c>
       <c r="AB7" t="n">
-        <v>151.8356281978136</v>
+        <v>179.9063918532008</v>
       </c>
       <c r="AC7" t="n">
-        <v>137.3446489452984</v>
+        <v>162.7363783149885</v>
       </c>
       <c r="AD7" t="n">
-        <v>110971.1537027471</v>
+        <v>131487.056756129</v>
       </c>
       <c r="AE7" t="n">
-        <v>151835.6281978136</v>
+        <v>179906.3918532008</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.022608149923595e-06</v>
+        <v>6.878211647280875e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.119598765432098</v>
       </c>
       <c r="AH7" t="n">
-        <v>137344.6489452984</v>
+        <v>162736.3783149885</v>
       </c>
     </row>
     <row r="8">
@@ -65776,28 +65776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>96.82354764973462</v>
+        <v>127.5119271124093</v>
       </c>
       <c r="AB8" t="n">
-        <v>132.4782494477629</v>
+        <v>174.4674441043234</v>
       </c>
       <c r="AC8" t="n">
-        <v>119.8347112548945</v>
+        <v>157.8165161056511</v>
       </c>
       <c r="AD8" t="n">
-        <v>96823.54764973462</v>
+        <v>127511.9271124093</v>
       </c>
       <c r="AE8" t="n">
-        <v>132478.2494477628</v>
+        <v>174467.4441043234</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.146873433535884e-06</v>
+        <v>7.090691433837003e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.965277777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>119834.7112548945</v>
+        <v>157816.5161056511</v>
       </c>
     </row>
     <row r="9">
@@ -65882,28 +65882,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>96.69815733440569</v>
+        <v>127.3865367970804</v>
       </c>
       <c r="AB9" t="n">
-        <v>132.3066848864996</v>
+        <v>174.2958795430602</v>
       </c>
       <c r="AC9" t="n">
-        <v>119.6795205745659</v>
+        <v>157.6613254253224</v>
       </c>
       <c r="AD9" t="n">
-        <v>96698.1573344057</v>
+        <v>127386.5367970804</v>
       </c>
       <c r="AE9" t="n">
-        <v>132306.6848864996</v>
+        <v>174295.8795430601</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.135984207652334e-06</v>
+        <v>7.072072071097548e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH9" t="n">
-        <v>119679.5205745659</v>
+        <v>157661.3254253224</v>
       </c>
     </row>
     <row r="10">
@@ -65988,28 +65988,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>95.13662365530895</v>
+        <v>125.8250031179836</v>
       </c>
       <c r="AB10" t="n">
-        <v>130.1701256167566</v>
+        <v>172.1593202733171</v>
       </c>
       <c r="AC10" t="n">
-        <v>117.7468715228467</v>
+        <v>155.7286763736032</v>
       </c>
       <c r="AD10" t="n">
-        <v>95136.62365530895</v>
+        <v>125825.0031179836</v>
       </c>
       <c r="AE10" t="n">
-        <v>130170.1256167566</v>
+        <v>172159.3202733171</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.192672236516702e-06</v>
+        <v>7.169002283005886e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.911265432098766</v>
       </c>
       <c r="AH10" t="n">
-        <v>117746.8715228467</v>
+        <v>155728.6763736032</v>
       </c>
     </row>
   </sheetData>
@@ -66285,28 +66285,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>219.9948079051923</v>
+        <v>262.1574518164525</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.0066016616903</v>
+        <v>358.6953911457885</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.2789540646062</v>
+        <v>324.4620064469769</v>
       </c>
       <c r="AD2" t="n">
-        <v>219994.8079051923</v>
+        <v>262157.4518164525</v>
       </c>
       <c r="AE2" t="n">
-        <v>301006.6016616903</v>
+        <v>358695.3911457885</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.492140073069627e-06</v>
+        <v>4.1700299914052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>272278.9540646062</v>
+        <v>324462.006446977</v>
       </c>
     </row>
     <row r="3">
@@ -66391,28 +66391,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.0339064919881</v>
+        <v>213.196460894694</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.0161363456529</v>
+        <v>291.7048033600286</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.6819647366015</v>
+        <v>263.8649063376961</v>
       </c>
       <c r="AD3" t="n">
-        <v>171033.9064919881</v>
+        <v>213196.460894694</v>
       </c>
       <c r="AE3" t="n">
-        <v>234016.1363456529</v>
+        <v>291704.8033600285</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.87853482128454e-06</v>
+        <v>4.816573781615596e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>211681.9647366015</v>
+        <v>263864.9063376961</v>
       </c>
     </row>
     <row r="4">
@@ -66497,28 +66497,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>157.1234164375231</v>
+        <v>188.7240865344607</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.9831901656341</v>
+        <v>258.2206211154148</v>
       </c>
       <c r="AC4" t="n">
-        <v>194.4654962270899</v>
+        <v>233.5764074511528</v>
       </c>
       <c r="AD4" t="n">
-        <v>157123.4164375231</v>
+        <v>188724.0865344607</v>
       </c>
       <c r="AE4" t="n">
-        <v>214983.1901656341</v>
+        <v>258220.6211154148</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.144443109653084e-06</v>
+        <v>5.261510865787699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.346450617283951</v>
       </c>
       <c r="AH4" t="n">
-        <v>194465.49622709</v>
+        <v>233576.4074511528</v>
       </c>
     </row>
     <row r="5">
@@ -66603,28 +66603,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.0403426026231</v>
+        <v>180.1175561507574</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.8728866589367</v>
+        <v>246.4447865511147</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.8471234410223</v>
+        <v>222.9244420101782</v>
       </c>
       <c r="AD5" t="n">
-        <v>138040.3426026231</v>
+        <v>180117.5561507574</v>
       </c>
       <c r="AE5" t="n">
-        <v>188872.8866589367</v>
+        <v>246444.7865511147</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.335907423904443e-06</v>
+        <v>5.581882879118625e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.983796296296296</v>
       </c>
       <c r="AH5" t="n">
-        <v>170847.1234410223</v>
+        <v>222924.4420101782</v>
       </c>
     </row>
     <row r="6">
@@ -66709,28 +66709,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>131.4514766389415</v>
+        <v>163.1373980818996</v>
       </c>
       <c r="AB6" t="n">
-        <v>179.8577095671809</v>
+        <v>223.2117851696108</v>
       </c>
       <c r="AC6" t="n">
-        <v>162.6923421980203</v>
+        <v>201.9087656727954</v>
       </c>
       <c r="AD6" t="n">
-        <v>131451.4766389415</v>
+        <v>163137.3980818996</v>
       </c>
       <c r="AE6" t="n">
-        <v>179857.7095671809</v>
+        <v>223211.7851696108</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.503367565820587e-06</v>
+        <v>5.862089365784987e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.698302469135802</v>
       </c>
       <c r="AH6" t="n">
-        <v>162692.3421980203</v>
+        <v>201908.7656727954</v>
       </c>
     </row>
     <row r="7">
@@ -66815,28 +66815,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.0936472008801</v>
+        <v>158.7795686438382</v>
       </c>
       <c r="AB7" t="n">
-        <v>173.8951350761621</v>
+        <v>217.2492106785921</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.2988274478967</v>
+        <v>196.5152509226717</v>
       </c>
       <c r="AD7" t="n">
-        <v>127093.6472008801</v>
+        <v>158779.5686438382</v>
       </c>
       <c r="AE7" t="n">
-        <v>173895.1350761621</v>
+        <v>217249.2106785921</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.623802292536923e-06</v>
+        <v>6.063609508188227e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.50925925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>157298.8274478966</v>
+        <v>196515.2509226717</v>
       </c>
     </row>
     <row r="8">
@@ -66921,28 +66921,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>123.7236942676451</v>
+        <v>155.239023510011</v>
       </c>
       <c r="AB8" t="n">
-        <v>169.2842168010816</v>
+        <v>212.4048806286646</v>
       </c>
       <c r="AC8" t="n">
-        <v>153.1279687415239</v>
+        <v>192.1332569336479</v>
       </c>
       <c r="AD8" t="n">
-        <v>123723.6942676451</v>
+        <v>155239.023510011</v>
       </c>
       <c r="AE8" t="n">
-        <v>169284.2168010816</v>
+        <v>212404.8806286646</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.716249395905521e-06</v>
+        <v>6.218298724027829e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.37037037037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>153127.9687415239</v>
+        <v>192133.2569336479</v>
       </c>
     </row>
     <row r="9">
@@ -67027,28 +67027,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>120.2021740743598</v>
+        <v>141.3262112115497</v>
       </c>
       <c r="AB9" t="n">
-        <v>164.4659175141249</v>
+        <v>193.3687570519599</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.7695211759873</v>
+        <v>174.9139142737305</v>
       </c>
       <c r="AD9" t="n">
-        <v>120202.1740743598</v>
+        <v>141326.2112115497</v>
       </c>
       <c r="AE9" t="n">
-        <v>164465.9175141249</v>
+        <v>193368.7570519599</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.819043125280675e-06</v>
+        <v>6.390300666878016e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.227623456790123</v>
       </c>
       <c r="AH9" t="n">
-        <v>148769.5211759873</v>
+        <v>174913.9142737305</v>
       </c>
     </row>
     <row r="10">
@@ -67133,28 +67133,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>116.3640416016625</v>
+        <v>137.4880787388523</v>
       </c>
       <c r="AB10" t="n">
-        <v>159.2144153385287</v>
+        <v>188.1172548763637</v>
       </c>
       <c r="AC10" t="n">
-        <v>144.0192149974987</v>
+        <v>170.163608095242</v>
       </c>
       <c r="AD10" t="n">
-        <v>116364.0416016625</v>
+        <v>137488.0787388523</v>
       </c>
       <c r="AE10" t="n">
-        <v>159214.4153385287</v>
+        <v>188117.2548763637</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.930993618671635e-06</v>
+        <v>6.577624373132575e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.077160493827161</v>
       </c>
       <c r="AH10" t="n">
-        <v>144019.2149974987</v>
+        <v>170163.608095242</v>
       </c>
     </row>
     <row r="11">
@@ -67239,28 +67239,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.3546374264032</v>
+        <v>138.478674563593</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.5697922479418</v>
+        <v>189.4726317857769</v>
       </c>
       <c r="AC11" t="n">
-        <v>145.2452366369614</v>
+        <v>171.3896297347046</v>
       </c>
       <c r="AD11" t="n">
-        <v>117354.6374264032</v>
+        <v>138478.6745635931</v>
       </c>
       <c r="AE11" t="n">
-        <v>160569.7922479418</v>
+        <v>189472.6317857769</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.891728172976747e-06</v>
+        <v>6.511922574127394e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.127314814814814</v>
       </c>
       <c r="AH11" t="n">
-        <v>145245.2366369613</v>
+        <v>171389.6297347046</v>
       </c>
     </row>
     <row r="12">
@@ -67345,28 +67345,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>103.0805760576731</v>
+        <v>134.6811566460596</v>
       </c>
       <c r="AB12" t="n">
-        <v>141.0393917561113</v>
+        <v>184.2767002363436</v>
       </c>
       <c r="AC12" t="n">
-        <v>127.5787901569756</v>
+        <v>166.6895905998119</v>
       </c>
       <c r="AD12" t="n">
-        <v>103080.5760576731</v>
+        <v>134681.1566460596</v>
       </c>
       <c r="AE12" t="n">
-        <v>141039.3917561113</v>
+        <v>184276.7002363436</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.99338377349118e-06</v>
+        <v>6.682020117006419e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.996141975308642</v>
       </c>
       <c r="AH12" t="n">
-        <v>127578.7901569756</v>
+        <v>166689.5905998119</v>
       </c>
     </row>
     <row r="13">
@@ -67451,28 +67451,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>101.276637355875</v>
+        <v>132.8772179442615</v>
       </c>
       <c r="AB13" t="n">
-        <v>138.5711632401537</v>
+        <v>181.8084717203859</v>
       </c>
       <c r="AC13" t="n">
-        <v>125.3461259063997</v>
+        <v>164.456926349236</v>
       </c>
       <c r="AD13" t="n">
-        <v>101276.637355875</v>
+        <v>132877.2179442615</v>
       </c>
       <c r="AE13" t="n">
-        <v>138571.1632401537</v>
+        <v>181808.4717203859</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.039477992350397e-06</v>
+        <v>6.759148315838587e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>125346.1259063997</v>
+        <v>164456.926349236</v>
       </c>
     </row>
     <row r="14">
@@ -67557,28 +67557,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>101.3507097471608</v>
+        <v>132.9512903355474</v>
       </c>
       <c r="AB14" t="n">
-        <v>138.6725123537543</v>
+        <v>181.9098208339865</v>
       </c>
       <c r="AC14" t="n">
-        <v>125.4378024028426</v>
+        <v>164.5486028456789</v>
       </c>
       <c r="AD14" t="n">
-        <v>101350.7097471608</v>
+        <v>132951.2903355474</v>
       </c>
       <c r="AE14" t="n">
-        <v>138672.5123537543</v>
+        <v>181909.8208339865</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.033166550486396e-06</v>
+        <v>6.748587552362128e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH14" t="n">
-        <v>125437.8024028426</v>
+        <v>164548.6028456789</v>
       </c>
     </row>
     <row r="15">
@@ -67663,28 +67663,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>101.3907174504602</v>
+        <v>132.9912980388468</v>
       </c>
       <c r="AB15" t="n">
-        <v>138.7272526584237</v>
+        <v>181.964561138656</v>
       </c>
       <c r="AC15" t="n">
-        <v>125.487318369663</v>
+        <v>164.5981188124993</v>
       </c>
       <c r="AD15" t="n">
-        <v>101390.7174504602</v>
+        <v>132991.2980388468</v>
       </c>
       <c r="AE15" t="n">
-        <v>138727.2526584237</v>
+        <v>181964.561138656</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.032390553535905e-06</v>
+        <v>6.747289097836334e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.949845679012346</v>
       </c>
       <c r="AH15" t="n">
-        <v>125487.318369663</v>
+        <v>164598.1188124993</v>
       </c>
     </row>
   </sheetData>
